--- a/Joining Data in Excel/Index and Match Practical Exercise.xlsx
+++ b/Joining Data in Excel/Index and Match Practical Exercise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimmy\Documents\WYWM\Course Refresh\DA\filtering and sorting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sites\WYWM_DataAnalysisExcel\Joining Data in Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DA7EDAAF-113A-4CD5-845A-C2AA93F32431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE09A4C6-02C1-4825-8F43-13138B631620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31500" yWindow="660" windowWidth="20415" windowHeight="13260"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">country!$A$1:$C$127</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">description!$A$1:$B$127</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -2180,7 +2180,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2805,22 +2805,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3185,19 +3185,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="13.6640625" customWidth="1"/>
+    <col min="1" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="52.140625" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="143.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>715</v>
       </c>
@@ -3208,7 +3213,7 @@
       <c r="F1" s="21"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -3231,634 +3236,3658 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>60031232</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="str">
+        <f>INDEX(details!B:B,MATCH($A3,details!$A:$A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C3" t="str">
+        <f>INDEX(details!C:C,MATCH($A3,details!$A:$A,0))</f>
+        <v>Mystic River</v>
+      </c>
+      <c r="D3" t="str">
+        <f>INDEX(details!G:G,MATCH($A3,details!$A:$A,0))</f>
+        <v>R</v>
+      </c>
+      <c r="E3" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A3,country!$A:$A,0))</f>
+        <v>United States, Australia</v>
+      </c>
+      <c r="F3" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A3,country!$A:$A,0))</f>
+        <v>September 1, 2019</v>
+      </c>
+      <c r="G3" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A3,description!A:A,0))</f>
+        <v>Tragedy reunites childhood friends Sean, Dave and Jimmy when they're linked together in a murder investigation about Jimmy's teenage daughter.</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>80994108</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="str">
+        <f>INDEX(details!B:B,MATCH($A4,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C4" t="str">
+        <f>INDEX(details!C:C,MATCH($A4,details!$A:$A,0))</f>
+        <v>Sisters</v>
+      </c>
+      <c r="D4" t="str">
+        <f>INDEX(details!G:G,MATCH($A4,details!$A:$A,0))</f>
+        <v>TV-MA</v>
+      </c>
+      <c r="E4" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A4,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F4" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A4,country!$A:$A,0))</f>
+        <v>September 1, 2018</v>
+      </c>
+      <c r="G4" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A4,description!A:A,0))</f>
+        <v>Her dad's deathbed confession leads Julia to discover she has more than 100 brothers and two sisters: troubled TV star Roxy and uptight lawyer Edie.</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>80025390</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="str">
+        <f>INDEX(details!B:B,MATCH($A5,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C5" t="str">
+        <f>INDEX(details!C:C,MATCH($A5,details!$A:$A,0))</f>
+        <v>The Water Diviner</v>
+      </c>
+      <c r="D5" t="str">
+        <f>INDEX(details!G:G,MATCH($A5,details!$A:$A,0))</f>
+        <v>R</v>
+      </c>
+      <c r="E5" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A5,country!$A:$A,0))</f>
+        <v>Australia, United States</v>
+      </c>
+      <c r="F5" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A5,country!$A:$A,0))</f>
+        <v>October 7, 2019</v>
+      </c>
+      <c r="G5" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A5,description!A:A,0))</f>
+        <v>Years after the presumed death of his three sons in battle, a grieving farmer journeys to Turkey to find them and return them to their homeland.</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>80204927</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="str">
+        <f>INDEX(details!B:B,MATCH($A6,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C6" t="str">
+        <f>INDEX(details!C:C,MATCH($A6,details!$A:$A,0))</f>
+        <v>Zumbo's Just Desserts</v>
+      </c>
+      <c r="D6" t="str">
+        <f>INDEX(details!G:G,MATCH($A6,details!$A:$A,0))</f>
+        <v>TV-14</v>
+      </c>
+      <c r="E6" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A6,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F6" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A6,country!$A:$A,0))</f>
+        <v>October 31, 2017</v>
+      </c>
+      <c r="G6" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A6,description!A:A,0))</f>
+        <v>Dessert wizard Adriano Zumbo looks for the next â€œWilly Wonkaâ€ in this tense competition that finds skilled amateurs competing for a $100,000 prize.</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>81025251</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="str">
+        <f>INDEX(details!B:B,MATCH($A7,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C7" t="str">
+        <f>INDEX(details!C:C,MATCH($A7,details!$A:$A,0))</f>
+        <v>Court Justice</v>
+      </c>
+      <c r="D7" t="str">
+        <f>INDEX(details!G:G,MATCH($A7,details!$A:$A,0))</f>
+        <v>TV-MA</v>
+      </c>
+      <c r="E7" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A7,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F7" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A7,country!$A:$A,0))</f>
+        <v>October 2, 2019</v>
+      </c>
+      <c r="G7" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A7,description!A:A,0))</f>
+        <v>In a bustling local court in Sydney, 12 magistrates preside over different levels of criminal offenses and deliver life-changing verdicts.</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>81003997</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="str">
+        <f>INDEX(details!B:B,MATCH($A8,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C8" t="str">
+        <f>INDEX(details!C:C,MATCH($A8,details!$A:$A,0))</f>
+        <v>Ask the Doctor</v>
+      </c>
+      <c r="D8" t="str">
+        <f>INDEX(details!G:G,MATCH($A8,details!$A:$A,0))</f>
+        <v>TV-PG</v>
+      </c>
+      <c r="E8" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A8,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F8" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A8,country!$A:$A,0))</f>
+        <v>October 19, 2018</v>
+      </c>
+      <c r="G8" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A8,description!A:A,0))</f>
+        <v>From allergies to diet to sleep, three friendly doctors share expert advice, bust medical myths and test the latest treatments.</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>80222326</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="str">
+        <f>INDEX(details!B:B,MATCH($A9,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C9" t="str">
+        <f>INDEX(details!C:C,MATCH($A9,details!$A:$A,0))</f>
+        <v>THE UNLISTED</v>
+      </c>
+      <c r="D9" t="str">
+        <f>INDEX(details!G:G,MATCH($A9,details!$A:$A,0))</f>
+        <v>TV-PG</v>
+      </c>
+      <c r="E9" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A9,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F9" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A9,country!$A:$A,0))</f>
+        <v>October 17, 2019</v>
+      </c>
+      <c r="G9" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A9,description!A:A,0))</f>
+        <v>When they learn of a secret plot to track and control kids, identical twins Dru and Kal team up with a band of runaway rebels to take back their world.</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>80190841</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="str">
+        <f>INDEX(details!B:B,MATCH($A10,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C10" t="str">
+        <f>INDEX(details!C:C,MATCH($A10,details!$A:$A,0))</f>
+        <v>OtherLife</v>
+      </c>
+      <c r="D10" t="str">
+        <f>INDEX(details!G:G,MATCH($A10,details!$A:$A,0))</f>
+        <v>TV-MA</v>
+      </c>
+      <c r="E10" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A10,country!$A:$A,0))</f>
+        <v>Australia, United Arab Emirates</v>
+      </c>
+      <c r="F10" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A10,country!$A:$A,0))</f>
+        <v>October 15, 2017</v>
+      </c>
+      <c r="G10" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A10,description!A:A,0))</f>
+        <v>After inventing a drug that induces time-compressed virtual realities, young Ren grapples with partner Sam over how to use their powerful creation.</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>80115858</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="str">
+        <f>INDEX(details!B:B,MATCH($A11,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C11" t="str">
+        <f>INDEX(details!C:C,MATCH($A11,details!$A:$A,0))</f>
+        <v>Sardaarji 2</v>
+      </c>
+      <c r="D11" t="str">
+        <f>INDEX(details!G:G,MATCH($A11,details!$A:$A,0))</f>
+        <v>TV-PG</v>
+      </c>
+      <c r="E11" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A11,country!$A:$A,0))</f>
+        <v>Australia, India</v>
+      </c>
+      <c r="F11" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A11,country!$A:$A,0))</f>
+        <v>October 15, 2017</v>
+      </c>
+      <c r="G11" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A11,description!A:A,0))</f>
+        <v>A simple farmer's life becomes complicated after he resolves to save his village from an economic crisis by traveling to Australia to earn money.</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>70095135</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="str">
+        <f>INDEX(details!B:B,MATCH($A12,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C12" t="str">
+        <f>INDEX(details!C:C,MATCH($A12,details!$A:$A,0))</f>
+        <v>Knowing</v>
+      </c>
+      <c r="D12" t="str">
+        <f>INDEX(details!G:G,MATCH($A12,details!$A:$A,0))</f>
+        <v>PG-13</v>
+      </c>
+      <c r="E12" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A12,country!$A:$A,0))</f>
+        <v>United States, United Kingdom, Australia</v>
+      </c>
+      <c r="F12" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A12,country!$A:$A,0))</f>
+        <v>October 1, 2019</v>
+      </c>
+      <c r="G12" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A12,description!A:A,0))</f>
+        <v>An MIT astrophysics professor and his son unearth a string of numbers from a time capsule that seem to reveal a cataclysm that will wipe out humanity.</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>80221498</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="str">
+        <f>INDEX(details!B:B,MATCH($A13,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C13" t="str">
+        <f>INDEX(details!C:C,MATCH($A13,details!$A:$A,0))</f>
+        <v>Mountain</v>
+      </c>
+      <c r="D13" t="str">
+        <f>INDEX(details!G:G,MATCH($A13,details!$A:$A,0))</f>
+        <v>PG</v>
+      </c>
+      <c r="E13" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A13,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F13" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A13,country!$A:$A,0))</f>
+        <v>October 1, 2018</v>
+      </c>
+      <c r="G13" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A13,description!A:A,0))</f>
+        <v>Featuring breathtaking imagery and thought-provoking narration, this film takes viewers to the summits of some of the worldâ€™s most amazing mountains.</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>70150437</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="str">
+        <f>INDEX(details!B:B,MATCH($A14,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C14" t="str">
+        <f>INDEX(details!C:C,MATCH($A14,details!$A:$A,0))</f>
+        <v>We Are Family</v>
+      </c>
+      <c r="D14" t="str">
+        <f>INDEX(details!G:G,MATCH($A14,details!$A:$A,0))</f>
+        <v>TV-PG</v>
+      </c>
+      <c r="E14" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A14,country!$A:$A,0))</f>
+        <v>India, Australia</v>
+      </c>
+      <c r="F14" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A14,country!$A:$A,0))</f>
+        <v>October 1, 2018</v>
+      </c>
+      <c r="G14" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A14,description!A:A,0))</f>
+        <v>A divorced mother of three children runs a happy household â€“ until her former husband brings his new career-oriented girlfriend into the picture.</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>80002999</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="str">
+        <f>INDEX(details!B:B,MATCH($A15,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C15" t="str">
+        <f>INDEX(details!C:C,MATCH($A15,details!$A:$A,0))</f>
+        <v>The Code</v>
+      </c>
+      <c r="D15" t="str">
+        <f>INDEX(details!G:G,MATCH($A15,details!$A:$A,0))</f>
+        <v>TV-MA</v>
+      </c>
+      <c r="E15" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A15,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F15" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A15,country!$A:$A,0))</f>
+        <v>October 1, 2017</v>
+      </c>
+      <c r="G15" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A15,description!A:A,0))</f>
+        <v>Investigating a deadly car crash, a journalist and his hacker brother stumble into a conspiracy that reaches into the upper echelons of government.</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>80208104</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="str">
+        <f>INDEX(details!B:B,MATCH($A16,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C16" t="str">
+        <f>INDEX(details!C:C,MATCH($A16,details!$A:$A,0))</f>
+        <v>Beat Bugs: All Together Now</v>
+      </c>
+      <c r="D16" t="str">
+        <f>INDEX(details!G:G,MATCH($A16,details!$A:$A,0))</f>
+        <v>TV-Y</v>
+      </c>
+      <c r="E16" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A16,country!$A:$A,0))</f>
+        <v>Australia, Canada</v>
+      </c>
+      <c r="F16" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A16,country!$A:$A,0))</f>
+        <v>November 21, 2017</v>
+      </c>
+      <c r="G16" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A16,description!A:A,0))</f>
+        <v>After winning a local talent show, the Beat Bugs journey to compete on "The Bug Factor," a televised singing contest held in faraway Rocket Ship Park.</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>70267398</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="str">
+        <f>INDEX(details!B:B,MATCH($A17,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C17" t="str">
+        <f>INDEX(details!C:C,MATCH($A17,details!$A:$A,0))</f>
+        <v>Adore</v>
+      </c>
+      <c r="D17" t="str">
+        <f>INDEX(details!G:G,MATCH($A17,details!$A:$A,0))</f>
+        <v>R</v>
+      </c>
+      <c r="E17" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A17,country!$A:$A,0))</f>
+        <v>Australia, France</v>
+      </c>
+      <c r="F17" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A17,country!$A:$A,0))</f>
+        <v>November 20, 2019</v>
+      </c>
+      <c r="G17" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A17,description!A:A,0))</f>
+        <v>When lifelong friends Roz and Lil fall in love with each other's teenage sons, they must carry out their affairs in relative secrecy.</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>70135899</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="str">
+        <f>INDEX(details!B:B,MATCH($A18,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C18" t="str">
+        <f>INDEX(details!C:C,MATCH($A18,details!$A:$A,0))</f>
+        <v>Don't Be Afraid of the Dark</v>
+      </c>
+      <c r="D18" t="str">
+        <f>INDEX(details!G:G,MATCH($A18,details!$A:$A,0))</f>
+        <v>R</v>
+      </c>
+      <c r="E18" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A18,country!$A:$A,0))</f>
+        <v>United States, Australia, Mexico</v>
+      </c>
+      <c r="F18" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A18,country!$A:$A,0))</f>
+        <v>November 2, 2019</v>
+      </c>
+      <c r="G18" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A18,description!A:A,0))</f>
+        <v>Young Sally Hurst discovers she isn't alone in her new house: strange creatures live there â€“ and they might not be as friendly as Sally thinks.</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>70243692</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" t="str">
+        <f>INDEX(details!B:B,MATCH($A19,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C19" t="str">
+        <f>INDEX(details!C:C,MATCH($A19,details!$A:$A,0))</f>
+        <v>Thorne: Sleepyhead</v>
+      </c>
+      <c r="D19" t="str">
+        <f>INDEX(details!G:G,MATCH($A19,details!$A:$A,0))</f>
+        <v>NR</v>
+      </c>
+      <c r="E19" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A19,country!$A:$A,0))</f>
+        <v>United Kingdom, Australia, Canada, United States</v>
+      </c>
+      <c r="F19" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A19,country!$A:$A,0))</f>
+        <v>November 2, 2016</v>
+      </c>
+      <c r="G19" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A19,description!A:A,0))</f>
+        <v>Investigating a series of attacks on young women, detective Tom Thorne is dragged back into the nightmares of his past as he races to find a killer.</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>80075824</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" t="str">
+        <f>INDEX(details!B:B,MATCH($A20,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C20" t="str">
+        <f>INDEX(details!C:C,MATCH($A20,details!$A:$A,0))</f>
+        <v>Only the Dead</v>
+      </c>
+      <c r="D20" t="str">
+        <f>INDEX(details!G:G,MATCH($A20,details!$A:$A,0))</f>
+        <v>TV-MA</v>
+      </c>
+      <c r="E20" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A20,country!$A:$A,0))</f>
+        <v>Australia, Iraq</v>
+      </c>
+      <c r="F20" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A20,country!$A:$A,0))</f>
+        <v>November 15, 2018</v>
+      </c>
+      <c r="G20" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A20,description!A:A,0))</f>
+        <v>Given unprecedented access to soldiers and terrorists alike, journalist Michael Ware presents an epic, uncensored, intimate account of the Iraq War.</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>81028574</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" t="str">
+        <f>INDEX(details!B:B,MATCH($A21,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C21" t="str">
+        <f>INDEX(details!C:C,MATCH($A21,details!$A:$A,0))</f>
+        <v>Shopkins: Wild</v>
+      </c>
+      <c r="D21" t="str">
+        <f>INDEX(details!G:G,MATCH($A21,details!$A:$A,0))</f>
+        <v>TV-Y</v>
+      </c>
+      <c r="E21" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A21,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F21" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A21,country!$A:$A,0))</f>
+        <v>November 15, 2018</v>
+      </c>
+      <c r="G21" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A21,description!A:A,0))</f>
+        <v>Beloved movie star Scarletta Gateau visits Shopville and recruits the Shopkins for a quest through the jungle to the mysterious world of Pawville.</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>81028560</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" t="str">
+        <f>INDEX(details!B:B,MATCH($A22,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C22" t="str">
+        <f>INDEX(details!C:C,MATCH($A22,details!$A:$A,0))</f>
+        <v>Shopkins: World Vacation</v>
+      </c>
+      <c r="D22" t="str">
+        <f>INDEX(details!G:G,MATCH($A22,details!$A:$A,0))</f>
+        <v>TV-Y</v>
+      </c>
+      <c r="E22" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A22,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F22" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A22,country!$A:$A,0))</f>
+        <v>November 15, 2018</v>
+      </c>
+      <c r="G22" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A22,description!A:A,0))</f>
+        <v>The Shopkins and Shoppies jet around the world in search of missing friend Kooky Cookie, a stolen diamond and more vloggable adventure.</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>60033312</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" t="str">
+        <f>INDEX(details!B:B,MATCH($A23,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C23" t="str">
+        <f>INDEX(details!C:C,MATCH($A23,details!$A:$A,0))</f>
+        <v>The Great Raid</v>
+      </c>
+      <c r="D23" t="str">
+        <f>INDEX(details!G:G,MATCH($A23,details!$A:$A,0))</f>
+        <v>R</v>
+      </c>
+      <c r="E23" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A23,country!$A:$A,0))</f>
+        <v>United States, Australia</v>
+      </c>
+      <c r="F23" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A23,country!$A:$A,0))</f>
+        <v>November 1, 2019</v>
+      </c>
+      <c r="G23" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A23,description!A:A,0))</f>
+        <v>In World War II, a battalion goes on a daring rescue mission to liberate the Americans and Filipinos who've been captured by the Japanese.</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>70060017</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" t="str">
+        <f>INDEX(details!B:B,MATCH($A24,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C24" t="str">
+        <f>INDEX(details!C:C,MATCH($A24,details!$A:$A,0))</f>
+        <v>The Water Horse: Legend of the Deep</v>
+      </c>
+      <c r="D24" t="str">
+        <f>INDEX(details!G:G,MATCH($A24,details!$A:$A,0))</f>
+        <v>PG</v>
+      </c>
+      <c r="E24" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A24,country!$A:$A,0))</f>
+        <v>New Zealand, United Kingdom, Australia</v>
+      </c>
+      <c r="F24" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A24,country!$A:$A,0))</f>
+        <v>November 1, 2018</v>
+      </c>
+      <c r="G24" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A24,description!A:A,0))</f>
+        <v>A boy watches an egg he found hatch into something incredible. But how long can he keep such a big secret from his mom â€“ and the Scottish government?</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>60000545</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" t="str">
+        <f>INDEX(details!B:B,MATCH($A25,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C25" t="str">
+        <f>INDEX(details!C:C,MATCH($A25,details!$A:$A,0))</f>
+        <v>The Interview</v>
+      </c>
+      <c r="D25" t="str">
+        <f>INDEX(details!G:G,MATCH($A25,details!$A:$A,0))</f>
+        <v>NR</v>
+      </c>
+      <c r="E25" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A25,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F25" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A25,country!$A:$A,0))</f>
+        <v>November 1, 2016</v>
+      </c>
+      <c r="G25" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A25,description!A:A,0))</f>
+        <v>When a man who's seemingly lost everything is grabbed by police for questioning, it starts a twisted cat-and-mouse game between him and a detective.</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>80025702</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" t="str">
+        <f>INDEX(details!B:B,MATCH($A26,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C26" t="str">
+        <f>INDEX(details!C:C,MATCH($A26,details!$A:$A,0))</f>
+        <v>The Last Days of Chez Nous</v>
+      </c>
+      <c r="D26" t="str">
+        <f>INDEX(details!G:G,MATCH($A26,details!$A:$A,0))</f>
+        <v>R</v>
+      </c>
+      <c r="E26" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A26,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F26" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A26,country!$A:$A,0))</f>
+        <v>November 1, 2016</v>
+      </c>
+      <c r="G26" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A26,description!A:A,0))</f>
+        <v>Successful writer Beth's tepid marriage and home life face a new round of challenges when her footloose younger sister arrives for an extended visit.</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>80156369</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" t="str">
+        <f>INDEX(details!B:B,MATCH($A27,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C27" t="str">
+        <f>INDEX(details!C:C,MATCH($A27,details!$A:$A,0))</f>
+        <v>Winter of Our Dreams</v>
+      </c>
+      <c r="D27" t="str">
+        <f>INDEX(details!G:G,MATCH($A27,details!$A:$A,0))</f>
+        <v>NR</v>
+      </c>
+      <c r="E27" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A27,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F27" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A27,country!$A:$A,0))</f>
+        <v>November 1, 2016</v>
+      </c>
+      <c r="G27" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A27,description!A:A,0))</f>
+        <v>After the death of a long-ago lover, married philanderer Rob tracks down her friend, a drug-addicted prostitute desperate to escape her dead-end life.</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>80161216</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" t="str">
+        <f>INDEX(details!B:B,MATCH($A28,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C28" t="str">
+        <f>INDEX(details!C:C,MATCH($A28,details!$A:$A,0))</f>
+        <v>Cargo</v>
+      </c>
+      <c r="D28" t="str">
+        <f>INDEX(details!G:G,MATCH($A28,details!$A:$A,0))</f>
+        <v>TV-MA</v>
+      </c>
+      <c r="E28" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A28,country!$A:$A,0))</f>
+        <v>Australia, United Arab Emirates</v>
+      </c>
+      <c r="F28" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A28,country!$A:$A,0))</f>
+        <v>May 18, 2018</v>
+      </c>
+      <c r="G28" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A28,description!A:A,0))</f>
+        <v>Amid a terrifying pandemic, a father searches the wilds of Australia for someone willing to protect and care for his infant daughter.</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>80169548</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" t="str">
+        <f>INDEX(details!B:B,MATCH($A29,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C29" t="str">
+        <f>INDEX(details!C:C,MATCH($A29,details!$A:$A,0))</f>
+        <v>Losing Sight of Shore</v>
+      </c>
+      <c r="D29" t="str">
+        <f>INDEX(details!G:G,MATCH($A29,details!$A:$A,0))</f>
+        <v>TV-14</v>
+      </c>
+      <c r="E29" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A29,country!$A:$A,0))</f>
+        <v>United States, Australia, Samoa, United Kingdom</v>
+      </c>
+      <c r="F29" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A29,country!$A:$A,0))</f>
+        <v>May 1, 2017</v>
+      </c>
+      <c r="G29" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A29,description!A:A,0))</f>
+        <v>This documentary recounts the feats of the Coxless Crew, a team of four women who rowed from San Francisco to Australia in support of two charities.</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>70283202</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" t="str">
+        <f>INDEX(details!B:B,MATCH($A30,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C30" t="str">
+        <f>INDEX(details!C:C,MATCH($A30,details!$A:$A,0))</f>
+        <v>Saving Mr. Banks</v>
+      </c>
+      <c r="D30" t="str">
+        <f>INDEX(details!G:G,MATCH($A30,details!$A:$A,0))</f>
+        <v>PG-13</v>
+      </c>
+      <c r="E30" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A30,country!$A:$A,0))</f>
+        <v>United States, United Kingdom, Australia</v>
+      </c>
+      <c r="F30" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A30,country!$A:$A,0))</f>
+        <v>March 2, 2019</v>
+      </c>
+      <c r="G30" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A30,description!A:A,0))</f>
+        <v>When Walt Disney sets his sights on obtaining the rights to the children's classic "Mary Poppins," the book's author proves a tough nut to crack.</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>80241537</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" t="str">
+        <f>INDEX(details!B:B,MATCH($A31,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C31" t="str">
+        <f>INDEX(details!C:C,MATCH($A31,details!$A:$A,0))</f>
+        <v>Little Lunch: The Halloween Horror Story</v>
+      </c>
+      <c r="D31" t="str">
+        <f>INDEX(details!G:G,MATCH($A31,details!$A:$A,0))</f>
+        <v>TV-Y7</v>
+      </c>
+      <c r="E31" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A31,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F31" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A31,country!$A:$A,0))</f>
+        <v>March 15, 2018</v>
+      </c>
+      <c r="G31" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A31,description!A:A,0))</f>
+        <v>When the class puts on a Halloween play about a boy who leaves behind his friends for a scary new place, it hits too close to home for one student.</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>80241616</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" t="str">
+        <f>INDEX(details!B:B,MATCH($A32,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C32" t="str">
+        <f>INDEX(details!C:C,MATCH($A32,details!$A:$A,0))</f>
+        <v>Little Lunch: The Nightmare Before Graduation</v>
+      </c>
+      <c r="D32" t="str">
+        <f>INDEX(details!G:G,MATCH($A32,details!$A:$A,0))</f>
+        <v>TV-Y7</v>
+      </c>
+      <c r="E32" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A32,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F32" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A32,country!$A:$A,0))</f>
+        <v>March 15, 2018</v>
+      </c>
+      <c r="G32" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A32,description!A:A,0))</f>
+        <v>Mrs. Gonsha's students are excited about the end of primary school â€“ until they discover that a classmate might not move on with them.</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>80244709</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" t="str">
+        <f>INDEX(details!B:B,MATCH($A33,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C33" t="str">
+        <f>INDEX(details!C:C,MATCH($A33,details!$A:$A,0))</f>
+        <v>Ali's Wedding</v>
+      </c>
+      <c r="D33" t="str">
+        <f>INDEX(details!G:G,MATCH($A33,details!$A:$A,0))</f>
+        <v>TV-MA</v>
+      </c>
+      <c r="E33" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A33,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F33" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A33,country!$A:$A,0))</f>
+        <v>June 8, 2018</v>
+      </c>
+      <c r="G33" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A33,description!A:A,0))</f>
+        <v>After telling a white lie that spins out of control, the son of an Iraqi-born cleric in Melbourne becomes torn between family duty and his own heart.</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>80227090</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" t="str">
+        <f>INDEX(details!B:B,MATCH($A34,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C34" t="str">
+        <f>INDEX(details!C:C,MATCH($A34,details!$A:$A,0))</f>
+        <v>I Am Mother</v>
+      </c>
+      <c r="D34" t="str">
+        <f>INDEX(details!G:G,MATCH($A34,details!$A:$A,0))</f>
+        <v>TV-14</v>
+      </c>
+      <c r="E34" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A34,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F34" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A34,country!$A:$A,0))</f>
+        <v>June 7, 2019</v>
+      </c>
+      <c r="G34" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A34,description!A:A,0))</f>
+        <v>Following humanity's mass extinction, a teen raised alone by a maternal droid finds her entire world shaken when she encounters another human.</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>70135893</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" t="str">
+        <f>INDEX(details!B:B,MATCH($A35,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C35" t="str">
+        <f>INDEX(details!C:C,MATCH($A35,details!$A:$A,0))</f>
+        <v>The King's Speech</v>
+      </c>
+      <c r="D35" t="str">
+        <f>INDEX(details!G:G,MATCH($A35,details!$A:$A,0))</f>
+        <v>R</v>
+      </c>
+      <c r="E35" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A35,country!$A:$A,0))</f>
+        <v>United Kingdom, United States, Australia</v>
+      </c>
+      <c r="F35" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A35,country!$A:$A,0))</f>
+        <v>June 2, 2018</v>
+      </c>
+      <c r="G35" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A35,description!A:A,0))</f>
+        <v>In this biographical drama, Britain's King George VI struggles with an embarrassing stutter until he seeks help from speech therapist Lionel Logue.</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>80233611</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" t="str">
+        <f>INDEX(details!B:B,MATCH($A36,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C36" t="str">
+        <f>INDEX(details!C:C,MATCH($A36,details!$A:$A,0))</f>
+        <v>Hannah Gadsby: Nanette</v>
+      </c>
+      <c r="D36" t="str">
+        <f>INDEX(details!G:G,MATCH($A36,details!$A:$A,0))</f>
+        <v>TV-MA</v>
+      </c>
+      <c r="E36" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A36,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F36" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A36,country!$A:$A,0))</f>
+        <v>June 19, 2018</v>
+      </c>
+      <c r="G36" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A36,description!A:A,0))</f>
+        <v>Australian comic Hannah Gadsby reshapes standard stand-up by pairing punchlines with personal revelations on gender, sexuality and childhood turmoil.</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>80104022</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" t="str">
+        <f>INDEX(details!B:B,MATCH($A37,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C37" t="str">
+        <f>INDEX(details!C:C,MATCH($A37,details!$A:$A,0))</f>
+        <v>72 Cutest Animals</v>
+      </c>
+      <c r="D37" t="str">
+        <f>INDEX(details!G:G,MATCH($A37,details!$A:$A,0))</f>
+        <v>TV-G</v>
+      </c>
+      <c r="E37" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A37,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F37" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A37,country!$A:$A,0))</f>
+        <v>June 1, 2016</v>
+      </c>
+      <c r="G37" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A37,description!A:A,0))</f>
+        <v>This series examines the nature of cuteness and how adorability helps some animal species to survive and thrive in a variety of environments.</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>80103006</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" t="str">
+        <f>INDEX(details!B:B,MATCH($A38,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C38" t="str">
+        <f>INDEX(details!C:C,MATCH($A38,details!$A:$A,0))</f>
+        <v>72 Dangerous Places to Live</v>
+      </c>
+      <c r="D38" t="str">
+        <f>INDEX(details!G:G,MATCH($A38,details!$A:$A,0))</f>
+        <v>TV-PG</v>
+      </c>
+      <c r="E38" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A38,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F38" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A38,country!$A:$A,0))</f>
+        <v>June 1, 2016</v>
+      </c>
+      <c r="G38" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A38,description!A:A,0))</f>
+        <v>Get up close and personal with avalanches, fiery volcanoes and other natural cataclysms, and learn why some choose to live in their destructive paths.</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>81018141</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" t="str">
+        <f>INDEX(details!B:B,MATCH($A39,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C39" t="str">
+        <f>INDEX(details!C:C,MATCH($A39,details!$A:$A,0))</f>
+        <v>Da Kath &amp; Kim Code</v>
+      </c>
+      <c r="D39" t="str">
+        <f>INDEX(details!G:G,MATCH($A39,details!$A:$A,0))</f>
+        <v>TV-14</v>
+      </c>
+      <c r="E39" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A39,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F39" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A39,country!$A:$A,0))</f>
+        <v>July 28, 2018</v>
+      </c>
+      <c r="G39" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A39,description!A:A,0))</f>
+        <v>Kath and Kel's union is tested by Michael BublÃ©, daughter Kim tries pole dancing, pal Sharon finds love online, and a stalker lurks amid Yuletide cheer.</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>81015524</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" t="str">
+        <f>INDEX(details!B:B,MATCH($A40,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C40" t="str">
+        <f>INDEX(details!C:C,MATCH($A40,details!$A:$A,0))</f>
+        <v>Kath &amp; Kimderella</v>
+      </c>
+      <c r="D40" t="str">
+        <f>INDEX(details!G:G,MATCH($A40,details!$A:$A,0))</f>
+        <v>TV-14</v>
+      </c>
+      <c r="E40" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A40,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F40" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A40,country!$A:$A,0))</f>
+        <v>July 28, 2018</v>
+      </c>
+      <c r="G40" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A40,description!A:A,0))</f>
+        <v>Chipper baby boomer Kath, diva daughter Kim and hapless pal Sharon visit Papilloma, Italy, where a royal romance and knockoff fashions await.</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>80170862</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" t="str">
+        <f>INDEX(details!B:B,MATCH($A41,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C41" t="str">
+        <f>INDEX(details!C:C,MATCH($A41,details!$A:$A,0))</f>
+        <v>The Bleeding Edge</v>
+      </c>
+      <c r="D41" t="str">
+        <f>INDEX(details!G:G,MATCH($A41,details!$A:$A,0))</f>
+        <v>TV-14</v>
+      </c>
+      <c r="E41" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A41,country!$A:$A,0))</f>
+        <v>Australia, United States</v>
+      </c>
+      <c r="F41" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A41,country!$A:$A,0))</f>
+        <v>July 27, 2018</v>
+      </c>
+      <c r="G41" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A41,description!A:A,0))</f>
+        <v>This eye-opening look at the fast-growing medical device industry reveals how the rush to innovate can lead to devastating consequences for patients.</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>80244472</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" t="str">
+        <f>INDEX(details!B:B,MATCH($A42,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C42" t="str">
+        <f>INDEX(details!C:C,MATCH($A42,details!$A:$A,0))</f>
+        <v>Dance Academy: The Comeback</v>
+      </c>
+      <c r="D42" t="str">
+        <f>INDEX(details!G:G,MATCH($A42,details!$A:$A,0))</f>
+        <v>TV-PG</v>
+      </c>
+      <c r="E42" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A42,country!$A:$A,0))</f>
+        <v>Germany, Australia</v>
+      </c>
+      <c r="F42" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A42,country!$A:$A,0))</f>
+        <v>July 2, 2018</v>
+      </c>
+      <c r="G42" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A42,description!A:A,0))</f>
+        <v>In this adaptation of the TV series, Tara recovers from injury and pursues a career in the U.S., where she grapples with love and professional rejection.</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>80190463</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43" t="str">
+        <f>INDEX(details!B:B,MATCH($A43,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C43" t="str">
+        <f>INDEX(details!C:C,MATCH($A43,details!$A:$A,0))</f>
+        <v>King of Peking</v>
+      </c>
+      <c r="D43" t="str">
+        <f>INDEX(details!G:G,MATCH($A43,details!$A:$A,0))</f>
+        <v>TV-PG</v>
+      </c>
+      <c r="E43" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A43,country!$A:$A,0))</f>
+        <v>China, United States, Australia</v>
+      </c>
+      <c r="F43" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A43,country!$A:$A,0))</f>
+        <v>July 2, 2018</v>
+      </c>
+      <c r="G43" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A43,description!A:A,0))</f>
+        <v>Strapped for cash, a traveling projectionist begins to run a DVD pirating business, putting him at odds with his young, skeptical son.</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>80027378</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44" t="str">
+        <f>INDEX(details!B:B,MATCH($A44,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C44" t="str">
+        <f>INDEX(details!C:C,MATCH($A44,details!$A:$A,0))</f>
+        <v>Son of a Gun</v>
+      </c>
+      <c r="D44" t="str">
+        <f>INDEX(details!G:G,MATCH($A44,details!$A:$A,0))</f>
+        <v>R</v>
+      </c>
+      <c r="E44" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A44,country!$A:$A,0))</f>
+        <v>Australia, United Kingdom, Canada</v>
+      </c>
+      <c r="F44" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A44,country!$A:$A,0))</f>
+        <v>July 19, 2018</v>
+      </c>
+      <c r="G44" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A44,description!A:A,0))</f>
+        <v>A young petty thief who received protection from a notorious inmate in jail is forced to spring his defender from prison and help pull off a heist.</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>70266679</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45" t="str">
+        <f>INDEX(details!B:B,MATCH($A45,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C45" t="str">
+        <f>INDEX(details!C:C,MATCH($A45,details!$A:$A,0))</f>
+        <v>The Rover</v>
+      </c>
+      <c r="D45" t="str">
+        <f>INDEX(details!G:G,MATCH($A45,details!$A:$A,0))</f>
+        <v>R</v>
+      </c>
+      <c r="E45" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A45,country!$A:$A,0))</f>
+        <v>Australia, United States</v>
+      </c>
+      <c r="F45" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A45,country!$A:$A,0))</f>
+        <v>July 19, 2018</v>
+      </c>
+      <c r="G45" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A45,description!A:A,0))</f>
+        <v>Set in a chaotic future, this Outback saga follows loner Eric's brutal ordeal when a criminal gang takes his car and leaves him nowhere with nothing.</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>80988262</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46" t="str">
+        <f>INDEX(details!B:B,MATCH($A46,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C46" t="str">
+        <f>INDEX(details!C:C,MATCH($A46,details!$A:$A,0))</f>
+        <v>Going for Gold</v>
+      </c>
+      <c r="D46" t="str">
+        <f>INDEX(details!G:G,MATCH($A46,details!$A:$A,0))</f>
+        <v>TV-G</v>
+      </c>
+      <c r="E46" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A46,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F46" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A46,country!$A:$A,0))</f>
+        <v>July 15, 2018</v>
+      </c>
+      <c r="G46" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A46,description!A:A,0))</f>
+        <v>After moving to Australia, an American teen convinces her new friends to form a cheer squad and take on their biggest rivals in competition.</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>80224312</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47" t="str">
+        <f>INDEX(details!B:B,MATCH($A47,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C47" t="str">
+        <f>INDEX(details!C:C,MATCH($A47,details!$A:$A,0))</f>
+        <v>History's Greatest Hoaxes</v>
+      </c>
+      <c r="D47" t="str">
+        <f>INDEX(details!G:G,MATCH($A47,details!$A:$A,0))</f>
+        <v>TV-PG</v>
+      </c>
+      <c r="E47" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A47,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F47" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A47,country!$A:$A,0))</f>
+        <v>July 12, 2019</v>
+      </c>
+      <c r="G47" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A47,description!A:A,0))</f>
+        <v>Using previously unseen footage, this documentary series offers new insights into some of the biggest scams and forgeries in human history.</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>80224184</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" t="str">
+        <f>INDEX(details!B:B,MATCH($A48,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C48" t="str">
+        <f>INDEX(details!C:C,MATCH($A48,details!$A:$A,0))</f>
+        <v>MegaTruckers</v>
+      </c>
+      <c r="D48" t="str">
+        <f>INDEX(details!G:G,MATCH($A48,details!$A:$A,0))</f>
+        <v>TV-PG</v>
+      </c>
+      <c r="E48" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A48,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F48" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A48,country!$A:$A,0))</f>
+        <v>July 12, 2019</v>
+      </c>
+      <c r="G48" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A48,description!A:A,0))</f>
+        <v>This reality ride-along offers a glimpse into the can-do, high-stakes world of big rig drivers who haul massive loads of cargo across Australia.</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>70098899</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" t="str">
+        <f>INDEX(details!B:B,MATCH($A49,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C49" t="str">
+        <f>INDEX(details!C:C,MATCH($A49,details!$A:$A,0))</f>
+        <v>Nights in Rodanthe</v>
+      </c>
+      <c r="D49" t="str">
+        <f>INDEX(details!G:G,MATCH($A49,details!$A:$A,0))</f>
+        <v>PG-13</v>
+      </c>
+      <c r="E49" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A49,country!$A:$A,0))</f>
+        <v>United States, Australia</v>
+      </c>
+      <c r="F49" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A49,country!$A:$A,0))</f>
+        <v>July 1, 2019</v>
+      </c>
+      <c r="G49" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A49,description!A:A,0))</f>
+        <v>When a hurricane hits a coastal North Carolina inn and strands the only guest, surgeon Paul Flanner, a young woman's life changes forever.</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>70290905</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50" t="str">
+        <f>INDEX(details!B:B,MATCH($A50,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C50" t="str">
+        <f>INDEX(details!C:C,MATCH($A50,details!$A:$A,0))</f>
+        <v>A 2nd Chance</v>
+      </c>
+      <c r="D50" t="str">
+        <f>INDEX(details!G:G,MATCH($A50,details!$A:$A,0))</f>
+        <v>PG</v>
+      </c>
+      <c r="E50" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A50,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F50" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A50,country!$A:$A,0))</f>
+        <v>July 1, 2017</v>
+      </c>
+      <c r="G50" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A50,description!A:A,0))</f>
+        <v>A gymnast lacks the confidence she needs to reach the top. But with the help of her new coach, she has the chance to win a spot on the national team.</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>80118532</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51" t="str">
+        <f>INDEX(details!B:B,MATCH($A51,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C51" t="str">
+        <f>INDEX(details!C:C,MATCH($A51,details!$A:$A,0))</f>
+        <v>Deep Water</v>
+      </c>
+      <c r="D51" t="str">
+        <f>INDEX(details!G:G,MATCH($A51,details!$A:$A,0))</f>
+        <v>TV-MA</v>
+      </c>
+      <c r="E51" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A51,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F51" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A51,country!$A:$A,0))</f>
+        <v>July 1, 2017</v>
+      </c>
+      <c r="G51" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A51,description!A:A,0))</f>
+        <v>Back in Bondi Beach, where she grew up, DC Tori Lustigman investigates a gay man's murder and finds a link to her brother's death decades earlier.</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>80220085</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52" t="str">
+        <f>INDEX(details!B:B,MATCH($A52,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C52" t="str">
+        <f>INDEX(details!C:C,MATCH($A52,details!$A:$A,0))</f>
+        <v>Occupation</v>
+      </c>
+      <c r="D52" t="str">
+        <f>INDEX(details!G:G,MATCH($A52,details!$A:$A,0))</f>
+        <v>R</v>
+      </c>
+      <c r="E52" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A52,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F52" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A52,country!$A:$A,0))</f>
+        <v>January 3, 2019</v>
+      </c>
+      <c r="G52" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A52,description!A:A,0))</f>
+        <v>When aliens take over their small Australian town, a modest group of survivors must unite to fend off their otherworldly intruders.</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>80222177</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53" t="str">
+        <f>INDEX(details!B:B,MATCH($A53,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C53" t="str">
+        <f>INDEX(details!C:C,MATCH($A53,details!$A:$A,0))</f>
+        <v>Rip Tide</v>
+      </c>
+      <c r="D53" t="str">
+        <f>INDEX(details!G:G,MATCH($A53,details!$A:$A,0))</f>
+        <v>TV-Y7</v>
+      </c>
+      <c r="E53" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A53,country!$A:$A,0))</f>
+        <v>Australia, United Arab Emirates</v>
+      </c>
+      <c r="F53" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A53,country!$A:$A,0))</f>
+        <v>January 15, 2018</v>
+      </c>
+      <c r="G53" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A53,description!A:A,0))</f>
+        <v>Following an embarrassing viral video, a New York model decides to escape from her suffocating existence by visiting her faraway aunt in Australia.</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>70202600</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54" t="str">
+        <f>INDEX(details!B:B,MATCH($A54,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C54" t="str">
+        <f>INDEX(details!C:C,MATCH($A54,details!$A:$A,0))</f>
+        <v>Shaka Zulu</v>
+      </c>
+      <c r="D54" t="str">
+        <f>INDEX(details!G:G,MATCH($A54,details!$A:$A,0))</f>
+        <v>TV-14</v>
+      </c>
+      <c r="E54" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A54,country!$A:$A,0))</f>
+        <v>Italy, South Africa, West Germany, Australia, United States</v>
+      </c>
+      <c r="F54" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A54,country!$A:$A,0))</f>
+        <v>January 10, 2019</v>
+      </c>
+      <c r="G54" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A54,description!A:A,0))</f>
+        <v>This miniseries recounts the early 19th-century conflict between the expanding British Empire in Africa and Shaka, the leader of the vast Zulu Nation.</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>70044594</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55" t="str">
+        <f>INDEX(details!B:B,MATCH($A55,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C55" t="str">
+        <f>INDEX(details!C:C,MATCH($A55,details!$A:$A,0))</f>
+        <v>Ghost Rider</v>
+      </c>
+      <c r="D55" t="str">
+        <f>INDEX(details!G:G,MATCH($A55,details!$A:$A,0))</f>
+        <v>PG-13</v>
+      </c>
+      <c r="E55" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A55,country!$A:$A,0))</f>
+        <v>United States, Australia</v>
+      </c>
+      <c r="F55" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A55,country!$A:$A,0))</f>
+        <v>January 1, 2020</v>
+      </c>
+      <c r="G55" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A55,description!A:A,0))</f>
+        <v>Stunt cyclist Johnny Blaze makes a bargain with the sinister Mephisto to save a loved one. Years later, Johnny gets the chance to reclaim his soul.</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>70125232</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56" t="str">
+        <f>INDEX(details!B:B,MATCH($A56,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C56" t="str">
+        <f>INDEX(details!C:C,MATCH($A56,details!$A:$A,0))</f>
+        <v>Legend of the Guardians: The Owls of Ga'Hoole</v>
+      </c>
+      <c r="D56" t="str">
+        <f>INDEX(details!G:G,MATCH($A56,details!$A:$A,0))</f>
+        <v>PG</v>
+      </c>
+      <c r="E56" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A56,country!$A:$A,0))</f>
+        <v>United States, Australia</v>
+      </c>
+      <c r="F56" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A56,country!$A:$A,0))</f>
+        <v>January 1, 2020</v>
+      </c>
+      <c r="G56" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A56,description!A:A,0))</f>
+        <v>Soren, a barn owl kidnapped from his peaceful forest home, is brought to an orphanage where he must train to become a soldier.</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>60022396</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57" t="str">
+        <f>INDEX(details!B:B,MATCH($A57,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C57" t="str">
+        <f>INDEX(details!C:C,MATCH($A57,details!$A:$A,0))</f>
+        <v>Strictly Ballroom</v>
+      </c>
+      <c r="D57" t="str">
+        <f>INDEX(details!G:G,MATCH($A57,details!$A:$A,0))</f>
+        <v>PG</v>
+      </c>
+      <c r="E57" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A57,country!$A:$A,0))</f>
+        <v>Australia, United Kingdom</v>
+      </c>
+      <c r="F57" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A57,country!$A:$A,0))</f>
+        <v>January 1, 2020</v>
+      </c>
+      <c r="G57" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A57,description!A:A,0))</f>
+        <v>Dumped by his partner just before a major dance competition, gifted hoofer Scott Hastings is forced to take a graceless neophyte as his new partner.</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>70060010</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58" t="str">
+        <f>INDEX(details!B:B,MATCH($A58,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C58" t="str">
+        <f>INDEX(details!C:C,MATCH($A58,details!$A:$A,0))</f>
+        <v>Bee Movie</v>
+      </c>
+      <c r="D58" t="str">
+        <f>INDEX(details!G:G,MATCH($A58,details!$A:$A,0))</f>
+        <v>PG</v>
+      </c>
+      <c r="E58" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A58,country!$A:$A,0))</f>
+        <v>United States, Australia</v>
+      </c>
+      <c r="F58" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A58,country!$A:$A,0))</f>
+        <v>January 1, 2017</v>
+      </c>
+      <c r="G58" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A58,description!A:A,0))</f>
+        <v>Barry, a worker bee stuck in a dead-end job making honey, sues humans when he learns they've been stealing bees' nectar all along.</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>80119555</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59" t="str">
+        <f>INDEX(details!B:B,MATCH($A59,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C59" t="str">
+        <f>INDEX(details!C:C,MATCH($A59,details!$A:$A,0))</f>
+        <v>Blinky Bill: The Movie</v>
+      </c>
+      <c r="D59" t="str">
+        <f>INDEX(details!G:G,MATCH($A59,details!$A:$A,0))</f>
+        <v>PG</v>
+      </c>
+      <c r="E59" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A59,country!$A:$A,0))</f>
+        <v>Australia, United States</v>
+      </c>
+      <c r="F59" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A59,country!$A:$A,0))</f>
+        <v>February 8, 2017</v>
+      </c>
+      <c r="G59" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A59,description!A:A,0))</f>
+        <v>Happy koala Blinky Bill and some spunky pals travel the Outback following clues to help him find his long-lost father and finally bring him home.</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>80038446</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60" t="str">
+        <f>INDEX(details!B:B,MATCH($A60,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C60" t="str">
+        <f>INDEX(details!C:C,MATCH($A60,details!$A:$A,0))</f>
+        <v>The Lovers</v>
+      </c>
+      <c r="D60" t="str">
+        <f>INDEX(details!G:G,MATCH($A60,details!$A:$A,0))</f>
+        <v>R</v>
+      </c>
+      <c r="E60" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A60,country!$A:$A,0))</f>
+        <v>Belgium, India, Australia</v>
+      </c>
+      <c r="F60" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A60,country!$A:$A,0))</f>
+        <v>February 5, 2017</v>
+      </c>
+      <c r="G60" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A60,description!A:A,0))</f>
+        <v>A magical ring holds the key to life, death and love for a marine archaeologist who seems to live two lives in different centuries and countries.</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>80061160</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61" t="str">
+        <f>INDEX(details!B:B,MATCH($A61,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C61" t="str">
+        <f>INDEX(details!C:C,MATCH($A61,details!$A:$A,0))</f>
+        <v>Be Here Now</v>
+      </c>
+      <c r="D61" t="str">
+        <f>INDEX(details!G:G,MATCH($A61,details!$A:$A,0))</f>
+        <v>TV-MA</v>
+      </c>
+      <c r="E61" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A61,country!$A:$A,0))</f>
+        <v>United States, Australia</v>
+      </c>
+      <c r="F61" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A61,country!$A:$A,0))</f>
+        <v>February 28, 2017</v>
+      </c>
+      <c r="G61" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A61,description!A:A,0))</f>
+        <v>Trace the brave journey of actor Andy Whitfield, who received a devastating cancer diagnosis while starring in the series "Spartacus: Blood and Sand."</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>80007215</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62" t="str">
+        <f>INDEX(details!B:B,MATCH($A62,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C62" t="str">
+        <f>INDEX(details!C:C,MATCH($A62,details!$A:$A,0))</f>
+        <v>Stop at Nothing: The Lance Armstrong Story</v>
+      </c>
+      <c r="D62" t="str">
+        <f>INDEX(details!G:G,MATCH($A62,details!$A:$A,0))</f>
+        <v>NR</v>
+      </c>
+      <c r="E62" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A62,country!$A:$A,0))</f>
+        <v>Australia, United Kingdom, United States, New Zealand, Italy, France</v>
+      </c>
+      <c r="F62" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A62,country!$A:$A,0))</f>
+        <v>February 15, 2015</v>
+      </c>
+      <c r="G62" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A62,description!A:A,0))</f>
+        <v>An athlete dupes the world with his tale of miraculous recovery from cancer, becoming a sports hero and beacon of hope, but can he outpace the truth?</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>70132722</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63" t="str">
+        <f>INDEX(details!B:B,MATCH($A63,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C63" t="str">
+        <f>INDEX(details!C:C,MATCH($A63,details!$A:$A,0))</f>
+        <v>Cats &amp; Dogs: The Revenge of Kitty Galore</v>
+      </c>
+      <c r="D63" t="str">
+        <f>INDEX(details!G:G,MATCH($A63,details!$A:$A,0))</f>
+        <v>PG</v>
+      </c>
+      <c r="E63" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A63,country!$A:$A,0))</f>
+        <v>United States, Australia</v>
+      </c>
+      <c r="F63" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A63,country!$A:$A,0))</f>
+        <v>February 1, 2019</v>
+      </c>
+      <c r="G63" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A63,description!A:A,0))</f>
+        <v>Cats and dogs must set aside their differences and merge animal instincts when Kitty Galore decides to claw her way to global domination.</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>80994282</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64" t="str">
+        <f>INDEX(details!B:B,MATCH($A64,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C64" t="str">
+        <f>INDEX(details!C:C,MATCH($A64,details!$A:$A,0))</f>
+        <v>Have You Seen the Listers?</v>
+      </c>
+      <c r="D64" t="str">
+        <f>INDEX(details!G:G,MATCH($A64,details!$A:$A,0))</f>
+        <v>TV-MA</v>
+      </c>
+      <c r="E64" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A64,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F64" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A64,country!$A:$A,0))</f>
+        <v>February 1, 2019</v>
+      </c>
+      <c r="G64" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A64,description!A:A,0))</f>
+        <v>This documentary paints a candid picture of Australian street artist Anthony Lister as he navigates his burgeoning career and personal hardships.</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>80198055</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65" t="str">
+        <f>INDEX(details!B:B,MATCH($A65,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C65" t="str">
+        <f>INDEX(details!C:C,MATCH($A65,details!$A:$A,0))</f>
+        <v>Emo the Musical</v>
+      </c>
+      <c r="D65" t="str">
+        <f>INDEX(details!G:G,MATCH($A65,details!$A:$A,0))</f>
+        <v>PG-13</v>
+      </c>
+      <c r="E65" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A65,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F65" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A65,country!$A:$A,0))</f>
+        <v>February 1, 2018</v>
+      </c>
+      <c r="G65" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A65,description!A:A,0))</f>
+        <v>Expelled from private school for attempted suicide, emo Ethan enters the world of Seymour High and meets a cute Christian who's ready to convert him.</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>80078037</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66" t="str">
+        <f>INDEX(details!B:B,MATCH($A66,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C66" t="str">
+        <f>INDEX(details!C:C,MATCH($A66,details!$A:$A,0))</f>
+        <v>Little Lunch</v>
+      </c>
+      <c r="D66">
+        <f>INDEX(details!G:G,MATCH($A66,details!$A:$A,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E66" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A66,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F66" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A66,country!$A:$A,0))</f>
+        <v>February 1, 2018</v>
+      </c>
+      <c r="G66" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A66,description!A:A,0))</f>
+        <v>Adopting a child's perspective, this show takes a humorous look at what happens during those action-packed 15 minutes of snack time each day.</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>80134682</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67" t="str">
+        <f>INDEX(details!B:B,MATCH($A67,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C67" t="str">
+        <f>INDEX(details!C:C,MATCH($A67,details!$A:$A,0))</f>
+        <v>Highly Strung</v>
+      </c>
+      <c r="D67" t="str">
+        <f>INDEX(details!G:G,MATCH($A67,details!$A:$A,0))</f>
+        <v>TV-14</v>
+      </c>
+      <c r="E67" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A67,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F67" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A67,country!$A:$A,0))</f>
+        <v>February 1, 2017</v>
+      </c>
+      <c r="G67" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A67,description!A:A,0))</f>
+        <v>Fiery passions take center stage in this intimate look at the Australian String Quartet and, perhaps more vital, the priceless instruments they guard.</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>80195198</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68" t="str">
+        <f>INDEX(details!B:B,MATCH($A68,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C68" t="str">
+        <f>INDEX(details!C:C,MATCH($A68,details!$A:$A,0))</f>
+        <v>Pine Gap</v>
+      </c>
+      <c r="D68" t="str">
+        <f>INDEX(details!G:G,MATCH($A68,details!$A:$A,0))</f>
+        <v>TV-MA</v>
+      </c>
+      <c r="E68" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A68,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F68" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A68,country!$A:$A,0))</f>
+        <v>December 7, 2018</v>
+      </c>
+      <c r="G68" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A68,description!A:A,0))</f>
+        <v>At top-secret U.S.-Australian joint defense facility Pine Gap, fissures appear in the critical alliance as spies work with, and against, each other.</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>70063484</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69" t="str">
+        <f>INDEX(details!B:B,MATCH($A69,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C69" t="str">
+        <f>INDEX(details!C:C,MATCH($A69,details!$A:$A,0))</f>
+        <v>The Secret</v>
+      </c>
+      <c r="D69" t="str">
+        <f>INDEX(details!G:G,MATCH($A69,details!$A:$A,0))</f>
+        <v>TV-PG</v>
+      </c>
+      <c r="E69" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A69,country!$A:$A,0))</f>
+        <v>Australia, United States</v>
+      </c>
+      <c r="F69" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A69,country!$A:$A,0))</f>
+        <v>December 7, 2017</v>
+      </c>
+      <c r="G69" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A69,description!A:A,0))</f>
+        <v>An assembly of writers, philosophers and scientists share The Secret, which reputedly brought success to Plato, da Vinci, Einstein and other greats.</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>80244190</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70" t="str">
+        <f>INDEX(details!B:B,MATCH($A70,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C70" t="str">
+        <f>INDEX(details!C:C,MATCH($A70,details!$A:$A,0))</f>
+        <v>Breath</v>
+      </c>
+      <c r="D70" t="str">
+        <f>INDEX(details!G:G,MATCH($A70,details!$A:$A,0))</f>
+        <v>TV-MA</v>
+      </c>
+      <c r="E70" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A70,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F70" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A70,country!$A:$A,0))</f>
+        <v>December 5, 2018</v>
+      </c>
+      <c r="G70" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A70,description!A:A,0))</f>
+        <v>In mid-1970s Australia, two small-town teenage boys befriend an enigmatic middle-aged surfer, who urges them to see the thrill in facing their fears.</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>80052828</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71" t="str">
+        <f>INDEX(details!B:B,MATCH($A71,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C71" t="str">
+        <f>INDEX(details!C:C,MATCH($A71,details!$A:$A,0))</f>
+        <v>Backtrack</v>
+      </c>
+      <c r="D71" t="str">
+        <f>INDEX(details!G:G,MATCH($A71,details!$A:$A,0))</f>
+        <v>R</v>
+      </c>
+      <c r="E71" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A71,country!$A:$A,0))</f>
+        <v>Australia, United Kingdom, United Arab Emirates, Canada</v>
+      </c>
+      <c r="F71" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A71,country!$A:$A,0))</f>
+        <v>December 25, 2018</v>
+      </c>
+      <c r="G71" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A71,description!A:A,0))</f>
+        <v>Haunted by visions of the dead, psychologist Peter returns home to confront a long-ago trauma. But will the trip exorcise or embolden the ghosts?</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>80165247</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72" t="str">
+        <f>INDEX(details!B:B,MATCH($A72,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C72" t="str">
+        <f>INDEX(details!C:C,MATCH($A72,details!$A:$A,0))</f>
+        <v>72 Dangerous Animals: Latin America</v>
+      </c>
+      <c r="D72" t="str">
+        <f>INDEX(details!G:G,MATCH($A72,details!$A:$A,0))</f>
+        <v>TV-14</v>
+      </c>
+      <c r="E72" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A72,country!$A:$A,0))</f>
+        <v>Australia, United States</v>
+      </c>
+      <c r="F72" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A72,country!$A:$A,0))</f>
+        <v>December 22, 2017</v>
+      </c>
+      <c r="G72" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A72,description!A:A,0))</f>
+        <v>Powerful cats, indestructible arachnids and flesh-melting pit vipers are just the beginning in this series about Latin America's deadliest creatures.</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>81108479</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73" t="str">
+        <f>INDEX(details!B:B,MATCH($A73,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C73" t="str">
+        <f>INDEX(details!C:C,MATCH($A73,details!$A:$A,0))</f>
+        <v>Back of the Net</v>
+      </c>
+      <c r="D73" t="str">
+        <f>INDEX(details!G:G,MATCH($A73,details!$A:$A,0))</f>
+        <v>TV-G</v>
+      </c>
+      <c r="E73" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A73,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F73" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A73,country!$A:$A,0))</f>
+        <v>December 21, 2019</v>
+      </c>
+      <c r="G73" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A73,description!A:A,0))</f>
+        <v>An American science geek ready to spend a summer at sea accidentally ends up at an Australian soccer academy and is forced to kick it with the locals.</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>70221084</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74" t="str">
+        <f>INDEX(details!B:B,MATCH($A74,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C74" t="str">
+        <f>INDEX(details!C:C,MATCH($A74,details!$A:$A,0))</f>
+        <v>Dance Academy</v>
+      </c>
+      <c r="D74" t="str">
+        <f>INDEX(details!G:G,MATCH($A74,details!$A:$A,0))</f>
+        <v>TV-PG</v>
+      </c>
+      <c r="E74" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A74,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F74" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A74,country!$A:$A,0))</f>
+        <v>December 20, 2017</v>
+      </c>
+      <c r="G74" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A74,description!A:A,0))</f>
+        <v>Fifteen-year-old Tara Webster's dream of dancing comes true when she gets into a top dance academy. She soon realizes dancing is only half the battle.</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>60030245</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75" t="str">
+        <f>INDEX(details!B:B,MATCH($A75,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C75" t="str">
+        <f>INDEX(details!C:C,MATCH($A75,details!$A:$A,0))</f>
+        <v>George of the Jungle 2</v>
+      </c>
+      <c r="D75" t="str">
+        <f>INDEX(details!G:G,MATCH($A75,details!$A:$A,0))</f>
+        <v>PG</v>
+      </c>
+      <c r="E75" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A75,country!$A:$A,0))</f>
+        <v>United States, Australia</v>
+      </c>
+      <c r="F75" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A75,country!$A:$A,0))</f>
+        <v>December 20, 2016</v>
+      </c>
+      <c r="G75" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A75,description!A:A,0))</f>
+        <v>Now married and raising a son, clumsy ape-man George finds his jungle kingdom in peril as Really Mean Lion challenges him for the throne.</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>80046145</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76" t="str">
+        <f>INDEX(details!B:B,MATCH($A76,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C76" t="str">
+        <f>INDEX(details!C:C,MATCH($A76,details!$A:$A,0))</f>
+        <v>Santa's Apprentice</v>
+      </c>
+      <c r="D76" t="str">
+        <f>INDEX(details!G:G,MATCH($A76,details!$A:$A,0))</f>
+        <v>TV-G</v>
+      </c>
+      <c r="E76" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A76,country!$A:$A,0))</f>
+        <v>Australia, France, Ireland</v>
+      </c>
+      <c r="F76" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A76,country!$A:$A,0))</f>
+        <v>December 20, 2015</v>
+      </c>
+      <c r="G76" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A76,description!A:A,0))</f>
+        <v>Young orphan Nicolas learns how to guide a sleigh, slide down chimneys and other duties he'll need when he becomes the next Santa Claus.</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>80106265</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77" t="str">
+        <f>INDEX(details!B:B,MATCH($A77,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C77" t="str">
+        <f>INDEX(details!C:C,MATCH($A77,details!$A:$A,0))</f>
+        <v>Pacific Heat</v>
+      </c>
+      <c r="D77" t="str">
+        <f>INDEX(details!G:G,MATCH($A77,details!$A:$A,0))</f>
+        <v>TV-14</v>
+      </c>
+      <c r="E77" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A77,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F77" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A77,country!$A:$A,0))</f>
+        <v>December 2, 2016</v>
+      </c>
+      <c r="G77" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A77,description!A:A,0))</f>
+        <v>In this animated satire, a covert squad of operatives short on smarts but long on confidence tackles crime on the glitzy Gold Coast of Australia.</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>80191239</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78" t="str">
+        <f>INDEX(details!B:B,MATCH($A78,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C78" t="str">
+        <f>INDEX(details!C:C,MATCH($A78,details!$A:$A,0))</f>
+        <v>Tidelands</v>
+      </c>
+      <c r="D78" t="str">
+        <f>INDEX(details!G:G,MATCH($A78,details!$A:$A,0))</f>
+        <v>TV-MA</v>
+      </c>
+      <c r="E78" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A78,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F78" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A78,country!$A:$A,0))</f>
+        <v>December 14, 2018</v>
+      </c>
+      <c r="G78" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A78,description!A:A,0))</f>
+        <v>Ex-con Cal McTeer's return to her hometown of Orphelin Bay blows the lid off a generations-long conspiracy of silence around murder, drugs and Sirens.</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>80205065</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79" t="str">
+        <f>INDEX(details!B:B,MATCH($A79,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C79" t="str">
+        <f>INDEX(details!C:C,MATCH($A79,details!$A:$A,0))</f>
+        <v>Red Christmas</v>
+      </c>
+      <c r="D79" t="str">
+        <f>INDEX(details!G:G,MATCH($A79,details!$A:$A,0))</f>
+        <v>TV-MA</v>
+      </c>
+      <c r="E79" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A79,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F79" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A79,country!$A:$A,0))</f>
+        <v>December 11, 2017</v>
+      </c>
+      <c r="G79" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A79,description!A:A,0))</f>
+        <v>A family Christmas gathering at an isolated Australian estate turns into the holiday from hell after a mysterious stranger turns up at the door.</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>80144453</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80" t="str">
+        <f>INDEX(details!B:B,MATCH($A80,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C80" t="str">
+        <f>INDEX(details!C:C,MATCH($A80,details!$A:$A,0))</f>
+        <v>Goldstone</v>
+      </c>
+      <c r="D80" t="str">
+        <f>INDEX(details!G:G,MATCH($A80,details!$A:$A,0))</f>
+        <v>R</v>
+      </c>
+      <c r="E80" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A80,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F80" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A80,country!$A:$A,0))</f>
+        <v>December 10, 2018</v>
+      </c>
+      <c r="G80" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A80,description!A:A,0))</f>
+        <v>In the Australian outback, an Indigenous cop on a missing persons case unearths a trafficking ring and runs afoul of political-industrial interests.</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>80188823</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81" t="str">
+        <f>INDEX(details!B:B,MATCH($A81,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C81" t="str">
+        <f>INDEX(details!C:C,MATCH($A81,details!$A:$A,0))</f>
+        <v>Iron Fists and Kung-Fu Kicks</v>
+      </c>
+      <c r="D81" t="str">
+        <f>INDEX(details!G:G,MATCH($A81,details!$A:$A,0))</f>
+        <v>TV-MA</v>
+      </c>
+      <c r="E81" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A81,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F81" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A81,country!$A:$A,0))</f>
+        <v>December 1, 2019</v>
+      </c>
+      <c r="G81" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A81,description!A:A,0))</f>
+        <v>This documentary examines the influence of Hong Kong's martial arts cinema on filmmaking from the Shaw Brothers to modern-day Hollywood blockbusters.</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81024716</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B82" t="str">
+        <f>INDEX(details!B:B,MATCH($A82,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C82" t="str">
+        <f>INDEX(details!C:C,MATCH($A82,details!$A:$A,0))</f>
+        <v>Faraar</v>
+      </c>
+      <c r="D82" t="str">
+        <f>INDEX(details!G:G,MATCH($A82,details!$A:$A,0))</f>
+        <v>TV-14</v>
+      </c>
+      <c r="E82" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A82,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F82" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A82,country!$A:$A,0))</f>
+        <v>December 1, 2018</v>
+      </c>
+      <c r="G82" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A82,description!A:A,0))</f>
+        <v>When a man is arrested on arrival in America because authorities mistake him for a wanted gangster, a new friend tries to help him prove his innocence.</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>80204929</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83" t="str">
+        <f>INDEX(details!B:B,MATCH($A83,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C83" t="str">
+        <f>INDEX(details!C:C,MATCH($A83,details!$A:$A,0))</f>
+        <v>Cheapest Weddings</v>
+      </c>
+      <c r="D83" t="str">
+        <f>INDEX(details!G:G,MATCH($A83,details!$A:$A,0))</f>
+        <v>TV-14</v>
+      </c>
+      <c r="E83" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A83,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F83" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A83,country!$A:$A,0))</f>
+        <v>December 1, 2017</v>
+      </c>
+      <c r="G83" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A83,description!A:A,0))</f>
+        <v>Couples on a tiny budget try to ensure that the day of their wedding turns out to be the magical experience they always dreamed it would be.</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>80066806</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B84" t="str">
+        <f>INDEX(details!B:B,MATCH($A84,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C84" t="str">
+        <f>INDEX(details!C:C,MATCH($A84,details!$A:$A,0))</f>
+        <v>Tyke Elephant Outlaw</v>
+      </c>
+      <c r="D84" t="str">
+        <f>INDEX(details!G:G,MATCH($A84,details!$A:$A,0))</f>
+        <v>TV-14</v>
+      </c>
+      <c r="E84" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A84,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F84" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A84,country!$A:$A,0))</f>
+        <v>December 1, 2015</v>
+      </c>
+      <c r="G84" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A84,description!A:A,0))</f>
+        <v>This documentary recounts a 1994 incident in Honolulu in which a circus elephant attacked and killed its trainer, then ran loose on the city streets.</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>80243216</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B85" t="str">
+        <f>INDEX(details!B:B,MATCH($A85,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C85" t="str">
+        <f>INDEX(details!C:C,MATCH($A85,details!$A:$A,0))</f>
+        <v>The InBESTigators</v>
+      </c>
+      <c r="D85" t="str">
+        <f>INDEX(details!G:G,MATCH($A85,details!$A:$A,0))</f>
+        <v>TV-G</v>
+      </c>
+      <c r="E85" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A85,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F85" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A85,country!$A:$A,0))</f>
+        <v>August 9, 2019</v>
+      </c>
+      <c r="G85" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A85,description!A:A,0))</f>
+        <v>Four clever school kids start their own detective agency and vlog about their adventures, becoming fast friends in the process.</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>60000677</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86" t="str">
+        <f>INDEX(details!B:B,MATCH($A86,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C86" t="str">
+        <f>INDEX(details!C:C,MATCH($A86,details!$A:$A,0))</f>
+        <v>Head On</v>
+      </c>
+      <c r="D86" t="str">
+        <f>INDEX(details!G:G,MATCH($A86,details!$A:$A,0))</f>
+        <v>TV-MA</v>
+      </c>
+      <c r="E86" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A86,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F86" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A86,country!$A:$A,0))</f>
+        <v>August 25, 2018</v>
+      </c>
+      <c r="G86" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A86,description!A:A,0))</f>
+        <v>This edgy drama follows 19-year-old Ari, a gay Greek-Australian whose roiling ethnic- and sexual-identity struggles lead to a wild, 24-hour odyssey.</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>80164392</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B87" t="str">
+        <f>INDEX(details!B:B,MATCH($A87,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C87" t="str">
+        <f>INDEX(details!C:C,MATCH($A87,details!$A:$A,0))</f>
+        <v>Berlin Syndrome</v>
+      </c>
+      <c r="D87" t="str">
+        <f>INDEX(details!G:G,MATCH($A87,details!$A:$A,0))</f>
+        <v>R</v>
+      </c>
+      <c r="E87" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A87,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F87" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A87,country!$A:$A,0))</f>
+        <v>August 25, 2017</v>
+      </c>
+      <c r="G87" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A87,description!A:A,0))</f>
+        <v>What starts as a passionate one-night stand quickly turns sinister when Clare learns she's locked inside Andi's apartment with no way out.</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>80201039</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B88" t="str">
+        <f>INDEX(details!B:B,MATCH($A88,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C88" t="str">
+        <f>INDEX(details!C:C,MATCH($A88,details!$A:$A,0))</f>
+        <v>Peter Rabbit</v>
+      </c>
+      <c r="D88" t="str">
+        <f>INDEX(details!G:G,MATCH($A88,details!$A:$A,0))</f>
+        <v>PG</v>
+      </c>
+      <c r="E88" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A88,country!$A:$A,0))</f>
+        <v>United States, Australia</v>
+      </c>
+      <c r="F88" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A88,country!$A:$A,0))</f>
+        <v>August 18, 2018</v>
+      </c>
+      <c r="G88" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A88,description!A:A,0))</f>
+        <v>In this mix of live action and CGI, rascally Peter Rabbit faces a tough new foe in his ongoing battle for the veggies in Mr. McGregor's garden.</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>80182274</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B89" t="str">
+        <f>INDEX(details!B:B,MATCH($A89,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C89" t="str">
+        <f>INDEX(details!C:C,MATCH($A89,details!$A:$A,0))</f>
+        <v>Barbecue</v>
+      </c>
+      <c r="D89" t="str">
+        <f>INDEX(details!G:G,MATCH($A89,details!$A:$A,0))</f>
+        <v>TV-MA</v>
+      </c>
+      <c r="E89" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A89,country!$A:$A,0))</f>
+        <v>Australia, Armenia, Japan, Jordan, Mexico, Mongolia, New Zealand, Philippines, South Africa, Sweden, United States, Uruguay</v>
+      </c>
+      <c r="F89" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A89,country!$A:$A,0))</f>
+        <v>August 15, 2017</v>
+      </c>
+      <c r="G89" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A89,description!A:A,0))</f>
+        <v>A blend of cultural nuance and mesmerizing techniques adds flavor to this globe-hopping celebration of cooking, tradition and community.</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>80165437</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B90" t="str">
+        <f>INDEX(details!B:B,MATCH($A90,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C90" t="str">
+        <f>INDEX(details!C:C,MATCH($A90,details!$A:$A,0))</f>
+        <v>72 Dangerous Animals: Asia</v>
+      </c>
+      <c r="D90" t="str">
+        <f>INDEX(details!G:G,MATCH($A90,details!$A:$A,0))</f>
+        <v>TV-14</v>
+      </c>
+      <c r="E90" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A90,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F90" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A90,country!$A:$A,0))</f>
+        <v>August 10, 2018</v>
+      </c>
+      <c r="G90" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A90,description!A:A,0))</f>
+        <v>From fangs to claws to venomous stings, they all wield deadly weapons. But which creature will be crowned the fiercest of all?</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>70119812</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B91" t="str">
+        <f>INDEX(details!B:B,MATCH($A91,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C91" t="str">
+        <f>INDEX(details!C:C,MATCH($A91,details!$A:$A,0))</f>
+        <v>Clash of the Titans</v>
+      </c>
+      <c r="D91" t="str">
+        <f>INDEX(details!G:G,MATCH($A91,details!$A:$A,0))</f>
+        <v>PG-13</v>
+      </c>
+      <c r="E91" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A91,country!$A:$A,0))</f>
+        <v>United States, United Kingdom, Australia</v>
+      </c>
+      <c r="F91" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A91,country!$A:$A,0))</f>
+        <v>August 1, 2019</v>
+      </c>
+      <c r="G91" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A91,description!A:A,0))</f>
+        <v>If he is to save the life of the beautiful Princess Andromeda, the valiant Perseus must battle a host of powerful, beastly enemies.</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>70301367</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B92" t="str">
+        <f>INDEX(details!B:B,MATCH($A92,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C92" t="str">
+        <f>INDEX(details!C:C,MATCH($A92,details!$A:$A,0))</f>
+        <v>Jupiter Ascending</v>
+      </c>
+      <c r="D92" t="str">
+        <f>INDEX(details!G:G,MATCH($A92,details!$A:$A,0))</f>
+        <v>PG-13</v>
+      </c>
+      <c r="E92" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A92,country!$A:$A,0))</f>
+        <v>United States, Australia</v>
+      </c>
+      <c r="F92" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A92,country!$A:$A,0))</f>
+        <v>August 1, 2019</v>
+      </c>
+      <c r="G92" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A92,description!A:A,0))</f>
+        <v>A young impoverished woman learns she's been predestined to change the fate of the universe after a genetically engineered hunter tracks her down.</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>70039168</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B93" t="str">
+        <f>INDEX(details!B:B,MATCH($A93,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C93" t="str">
+        <f>INDEX(details!C:C,MATCH($A93,details!$A:$A,0))</f>
+        <v>Rumor Has It</v>
+      </c>
+      <c r="D93" t="str">
+        <f>INDEX(details!G:G,MATCH($A93,details!$A:$A,0))</f>
+        <v>PG-13</v>
+      </c>
+      <c r="E93" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A93,country!$A:$A,0))</f>
+        <v>United States, Germany, Australia</v>
+      </c>
+      <c r="F93" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A93,country!$A:$A,0))</f>
+        <v>August 1, 2019</v>
+      </c>
+      <c r="G93" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A93,description!A:A,0))</f>
+        <v>When Sarah travels to California for her sister's wedding, she hears a rumor that her family was the real-life inspiration for "The Graduate."</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>81103517</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B94" t="str">
+        <f>INDEX(details!B:B,MATCH($A94,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C94" t="str">
+        <f>INDEX(details!C:C,MATCH($A94,details!$A:$A,0))</f>
+        <v>The Chefs' Line</v>
+      </c>
+      <c r="D94" t="str">
+        <f>INDEX(details!G:G,MATCH($A94,details!$A:$A,0))</f>
+        <v>TV-14</v>
+      </c>
+      <c r="E94" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A94,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F94" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A94,country!$A:$A,0))</f>
+        <v>August 1, 2019</v>
+      </c>
+      <c r="G94" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A94,description!A:A,0))</f>
+        <v>Home cooks face off against trained chefs to see if passion can beat profession in the kitchen in this reality competition show.</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>80185803</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B95" t="str">
+        <f>INDEX(details!B:B,MATCH($A95,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C95" t="str">
+        <f>INDEX(details!C:C,MATCH($A95,details!$A:$A,0))</f>
+        <v>Aussie Gold Hunters</v>
+      </c>
+      <c r="D95" t="str">
+        <f>INDEX(details!G:G,MATCH($A95,details!$A:$A,0))</f>
+        <v>TV-MA</v>
+      </c>
+      <c r="E95" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A95,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F95" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A95,country!$A:$A,0))</f>
+        <v>August 1, 2017</v>
+      </c>
+      <c r="G95" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A95,description!A:A,0))</f>
+        <v>Three teams of gold hunters battle all manner of challenges while pursuing their dreams in the Australian Outback.</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>80187107</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96" t="str">
+        <f>INDEX(details!B:B,MATCH($A96,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C96" t="str">
+        <f>INDEX(details!C:C,MATCH($A96,details!$A:$A,0))</f>
+        <v>Raising the Bar</v>
+      </c>
+      <c r="D96" t="str">
+        <f>INDEX(details!G:G,MATCH($A96,details!$A:$A,0))</f>
+        <v>TV-G</v>
+      </c>
+      <c r="E96" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A96,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F96" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A96,country!$A:$A,0))</f>
+        <v>August 1, 2017</v>
+      </c>
+      <c r="G96" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A96,description!A:A,0))</f>
+        <v>A teenager who gave up her spot in an elite U.S. gymnastics program when her family moved to Australia enters a competition to help a new friend.</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>80104552</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97" t="str">
+        <f>INDEX(details!B:B,MATCH($A97,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C97" t="str">
+        <f>INDEX(details!C:C,MATCH($A97,details!$A:$A,0))</f>
+        <v>Holding the Man</v>
+      </c>
+      <c r="D97" t="str">
+        <f>INDEX(details!G:G,MATCH($A97,details!$A:$A,0))</f>
+        <v>NR</v>
+      </c>
+      <c r="E97" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A97,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F97" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A97,country!$A:$A,0))</f>
+        <v>August 1, 2016</v>
+      </c>
+      <c r="G97" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A97,description!A:A,0))</f>
+        <v>In 1970s Australia, two teen boys fall in love with each other and defeat obstacles to their 15-year relationship, until a new crisis comes their way.</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>80175352</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98" t="str">
+        <f>INDEX(details!B:B,MATCH($A98,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C98" t="str">
+        <f>INDEX(details!C:C,MATCH($A98,details!$A:$A,0))</f>
+        <v>Troy</v>
+      </c>
+      <c r="D98" t="str">
+        <f>INDEX(details!G:G,MATCH($A98,details!$A:$A,0))</f>
+        <v>TV-MA</v>
+      </c>
+      <c r="E98" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A98,country!$A:$A,0))</f>
+        <v>United Kingdom, South Africa, Australia, United States</v>
+      </c>
+      <c r="F98" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A98,country!$A:$A,0))</f>
+        <v>April 6, 2018</v>
+      </c>
+      <c r="G98" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A98,description!A:A,0))</f>
+        <v>Searching for the woman promised to him by Aphrodite, herdsman Paris learns his true identity and falls for Helen of Sparta, igniting the Trojan War.</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>80142316</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B99" t="str">
+        <f>INDEX(details!B:B,MATCH($A99,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C99" t="str">
+        <f>INDEX(details!C:C,MATCH($A99,details!$A:$A,0))</f>
+        <v>Casting JonBenet</v>
+      </c>
+      <c r="D99" t="str">
+        <f>INDEX(details!G:G,MATCH($A99,details!$A:$A,0))</f>
+        <v>TV-14</v>
+      </c>
+      <c r="E99" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A99,country!$A:$A,0))</f>
+        <v>United States, Australia, China</v>
+      </c>
+      <c r="F99" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A99,country!$A:$A,0))</f>
+        <v>April 28, 2017</v>
+      </c>
+      <c r="G99" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A99,description!A:A,0))</f>
+        <v>Local actors from JonBenet Ramsey's hometown offer multiple perspectives on her 1996 murder as they vie to play roles in a dramatization of the case.</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>80184682</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B100" t="str">
+        <f>INDEX(details!B:B,MATCH($A100,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C100" t="str">
+        <f>INDEX(details!C:C,MATCH($A100,details!$A:$A,0))</f>
+        <v>The New Legends of Monkey</v>
+      </c>
+      <c r="D100" t="str">
+        <f>INDEX(details!G:G,MATCH($A100,details!$A:$A,0))</f>
+        <v>TV-PG</v>
+      </c>
+      <c r="E100" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A100,country!$A:$A,0))</f>
+        <v>Australia, New Zealand</v>
+      </c>
+      <c r="F100" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A100,country!$A:$A,0))</f>
+        <v>April 27, 2018</v>
+      </c>
+      <c r="G100" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A100,description!A:A,0))</f>
+        <v>A valiant girl liberates the Monkey King â€“ a god long trapped in stone â€“ in a quest to find seven sacred scrolls and save the world from evil.</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>70242568</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B101" t="str">
+        <f>INDEX(details!B:B,MATCH($A101,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C101" t="str">
+        <f>INDEX(details!C:C,MATCH($A101,details!$A:$A,0))</f>
+        <v>The Sapphires</v>
+      </c>
+      <c r="D101" t="str">
+        <f>INDEX(details!G:G,MATCH($A101,details!$A:$A,0))</f>
+        <v>PG-13</v>
+      </c>
+      <c r="E101" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A101,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F101" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A101,country!$A:$A,0))</f>
+        <v>April 26, 2019</v>
+      </c>
+      <c r="G101" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A101,description!A:A,0))</f>
+        <v>Sisters Gail, Cynthia and Julie have talent, but their career takes off when promoter Dave convinces them to tour for U.S. troops in Vietnam.</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>80081278</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B102" t="str">
+        <f>INDEX(details!B:B,MATCH($A102,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C102" t="str">
+        <f>INDEX(details!C:C,MATCH($A102,details!$A:$A,0))</f>
+        <v>The Daughter</v>
+      </c>
+      <c r="D102" t="str">
+        <f>INDEX(details!G:G,MATCH($A102,details!$A:$A,0))</f>
+        <v>TV-MA</v>
+      </c>
+      <c r="E102" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A102,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F102" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A102,country!$A:$A,0))</f>
+        <v>April 26, 2017</v>
+      </c>
+      <c r="G102" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A102,description!A:A,0))</f>
+        <v>Having returned home for his cagey father's wedding, an estranged man gets to know his childhood friend's family and uncovers a devastating secret.</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>80238655</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B103" t="str">
+        <f>INDEX(details!B:B,MATCH($A103,details!A:A,0))</f>
+        <v>Movie</v>
+      </c>
+      <c r="C103" t="str">
+        <f>INDEX(details!C:C,MATCH($A103,details!$A:$A,0))</f>
+        <v>The Magic Pill</v>
+      </c>
+      <c r="D103" t="str">
+        <f>INDEX(details!G:G,MATCH($A103,details!$A:$A,0))</f>
+        <v>TV-PG</v>
+      </c>
+      <c r="E103" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A103,country!$A:$A,0))</f>
+        <v>United States, Australia, South Africa, United Kingdom</v>
+      </c>
+      <c r="F103" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A103,country!$A:$A,0))</f>
+        <v>April 24, 2018</v>
+      </c>
+      <c r="G103" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A103,description!A:A,0))</f>
+        <v>Doctors, farmers, chefs and others weigh in on the controversial ketogenic diet and its potential to eradicate common illnesses.</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>80198950</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B104" t="str">
+        <f>INDEX(details!B:B,MATCH($A104,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C104" t="str">
+        <f>INDEX(details!C:C,MATCH($A104,details!$A:$A,0))</f>
+        <v>Lunatics</v>
+      </c>
+      <c r="D104" t="str">
+        <f>INDEX(details!G:G,MATCH($A104,details!$A:$A,0))</f>
+        <v>TV-MA</v>
+      </c>
+      <c r="E104" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A104,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F104" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A104,country!$A:$A,0))</f>
+        <v>April 19, 2019</v>
+      </c>
+      <c r="G104" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A104,description!A:A,0))</f>
+        <v>This mockumentary series follows the peculiar lives of six eccentric â€“ and sometimes obscene â€“ misfits who march to their own beat.</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>80108495</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B105" t="str">
+        <f>INDEX(details!B:B,MATCH($A105,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C105" t="str">
+        <f>INDEX(details!C:C,MATCH($A105,details!$A:$A,0))</f>
+        <v>Glitch</v>
+      </c>
+      <c r="D105" t="str">
+        <f>INDEX(details!G:G,MATCH($A105,details!$A:$A,0))</f>
+        <v>TV-MA</v>
+      </c>
+      <c r="E105" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A105,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F105" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A105,country!$A:$A,0))</f>
+        <v xml:space="preserve"> September 25, 2019</v>
+      </c>
+      <c r="G105" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A105,description!A:A,0))</f>
+        <v>A police officer and a doctor face an emotionally charged mystery when seven local residents inexplicably return from the dead in peak physical form.</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>80118289</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B106" t="str">
+        <f>INDEX(details!B:B,MATCH($A106,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C106" t="str">
+        <f>INDEX(details!C:C,MATCH($A106,details!$A:$A,0))</f>
+        <v>Offspring</v>
+      </c>
+      <c r="D106" t="str">
+        <f>INDEX(details!G:G,MATCH($A106,details!$A:$A,0))</f>
+        <v>TV-MA</v>
+      </c>
+      <c r="E106" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A106,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F106" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A106,country!$A:$A,0))</f>
+        <v xml:space="preserve"> September 13, 2017</v>
+      </c>
+      <c r="G106" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A106,description!A:A,0))</f>
+        <v>A Melbourne obstetrician in her thirties struggles with the increasingly chaotic family, romantic and professional aspects of her life in this drama.</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>70301553</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B107" t="str">
+        <f>INDEX(details!B:B,MATCH($A107,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C107" t="str">
+        <f>INDEX(details!C:C,MATCH($A107,details!$A:$A,0))</f>
+        <v>Rake</v>
+      </c>
+      <c r="D107" t="str">
+        <f>INDEX(details!G:G,MATCH($A107,details!$A:$A,0))</f>
+        <v>NR</v>
+      </c>
+      <c r="E107" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A107,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F107" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A107,country!$A:$A,0))</f>
+        <v xml:space="preserve"> October 16, 2018</v>
+      </c>
+      <c r="G107" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A107,description!A:A,0))</f>
+        <v>While Cleaver Greene is a brilliant and driven attorney, he's also an ex-druggie, a current gambling addict and loathed by many of his colleagues.</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>80107077</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B108" t="str">
+        <f>INDEX(details!B:B,MATCH($A108,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C108" t="str">
+        <f>INDEX(details!C:C,MATCH($A108,details!$A:$A,0))</f>
+        <v>Cleverman</v>
+      </c>
+      <c r="D108" t="str">
+        <f>INDEX(details!G:G,MATCH($A108,details!$A:$A,0))</f>
+        <v>TV-MA</v>
+      </c>
+      <c r="E108" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A108,country!$A:$A,0))</f>
+        <v>Australia, New Zealand, United States</v>
+      </c>
+      <c r="F108" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A108,country!$A:$A,0))</f>
+        <v xml:space="preserve"> October 1, 2017</v>
+      </c>
+      <c r="G108" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A108,description!A:A,0))</f>
+        <v>In the near future, physically powerful beings known as "Hairies" struggle to survive in a segregated society dominated by hostile humans.</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>80221999</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B109" t="str">
+        <f>INDEX(details!B:B,MATCH($A109,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C109" t="str">
+        <f>INDEX(details!C:C,MATCH($A109,details!$A:$A,0))</f>
+        <v>Bondi Rescue</v>
+      </c>
+      <c r="D109" t="str">
+        <f>INDEX(details!G:G,MATCH($A109,details!$A:$A,0))</f>
+        <v>TV-PG</v>
+      </c>
+      <c r="E109" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A109,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F109" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A109,country!$A:$A,0))</f>
+        <v xml:space="preserve"> November 1, 2019</v>
+      </c>
+      <c r="G109" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A109,description!A:A,0))</f>
+        <v>This reality series follows elite professional lifeguards on Sydney's Bondi Beach, as they take on everything from animal stings to criminals.</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>80101401</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B110" t="str">
+        <f>INDEX(details!B:B,MATCH($A110,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C110" t="str">
+        <f>INDEX(details!C:C,MATCH($A110,details!$A:$A,0))</f>
+        <v>The Deep</v>
+      </c>
+      <c r="D110" t="str">
+        <f>INDEX(details!G:G,MATCH($A110,details!$A:$A,0))</f>
+        <v>TV-Y7</v>
+      </c>
+      <c r="E110" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A110,country!$A:$A,0))</f>
+        <v>Canada, Australia</v>
+      </c>
+      <c r="F110" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A110,country!$A:$A,0))</f>
+        <v xml:space="preserve"> November 1, 2019</v>
+      </c>
+      <c r="G110" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A110,description!A:A,0))</f>
+        <v>The Nektons are a family of underwater explorers who discover the hidden secrets of the oceans, including sunken cities, sea creatures and pirates.</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>80057609</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B111" t="str">
+        <f>INDEX(details!B:B,MATCH($A111,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C111" t="str">
+        <f>INDEX(details!C:C,MATCH($A111,details!$A:$A,0))</f>
+        <v>Kazoops!</v>
+      </c>
+      <c r="D111" t="str">
+        <f>INDEX(details!G:G,MATCH($A111,details!$A:$A,0))</f>
+        <v>TV-Y</v>
+      </c>
+      <c r="E111" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A111,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F111" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A111,country!$A:$A,0))</f>
+        <v xml:space="preserve"> May 5, 2017</v>
+      </c>
+      <c r="G111" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A111,description!A:A,0))</f>
+        <v>Music meets imagination in this inventive animated series about thinking outside the box and having fun.</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>70281343</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B112" t="str">
+        <f>INDEX(details!B:B,MATCH($A112,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C112" t="str">
+        <f>INDEX(details!C:C,MATCH($A112,details!$A:$A,0))</f>
+        <v>Mako Mermaids: An H2O Adventure</v>
+      </c>
+      <c r="D112" t="str">
+        <f>INDEX(details!G:G,MATCH($A112,details!$A:$A,0))</f>
+        <v>TV-G</v>
+      </c>
+      <c r="E112" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A112,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F112" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A112,country!$A:$A,0))</f>
+        <v xml:space="preserve"> May 27, 2016</v>
+      </c>
+      <c r="G112" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A112,description!A:A,0))</f>
+        <v>This "H2O" sequel follows Zac, a boy who accidentally turns into a merman and threatens the existence of three young mermaids who guard Mako Island.</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>80211136</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B113" t="str">
+        <f>INDEX(details!B:B,MATCH($A113,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C113" t="str">
+        <f>INDEX(details!C:C,MATCH($A113,details!$A:$A,0))</f>
+        <v>Secret City</v>
+      </c>
+      <c r="D113" t="str">
+        <f>INDEX(details!G:G,MATCH($A113,details!$A:$A,0))</f>
+        <v>TV-MA</v>
+      </c>
+      <c r="E113" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A113,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F113" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A113,country!$A:$A,0))</f>
+        <v xml:space="preserve"> March 6, 2019</v>
+      </c>
+      <c r="G113" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A113,description!A:A,0))</f>
+        <v>A student's protest leads to a government scandal that has personal and professional repercussions for one of Australia's toughest journalists.</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>80022276</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B114" t="str">
+        <f>INDEX(details!B:B,MATCH($A114,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C114" t="str">
+        <f>INDEX(details!C:C,MATCH($A114,details!$A:$A,0))</f>
+        <v>Bottersnikes &amp; Gumbles</v>
+      </c>
+      <c r="D114" t="str">
+        <f>INDEX(details!G:G,MATCH($A114,details!$A:$A,0))</f>
+        <v>TV-Y7</v>
+      </c>
+      <c r="E114" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A114,country!$A:$A,0))</f>
+        <v>United States, United Kingdom, Australia</v>
+      </c>
+      <c r="F114" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A114,country!$A:$A,0))</f>
+        <v xml:space="preserve"> March 24, 2017</v>
+      </c>
+      <c r="G114" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A114,description!A:A,0))</f>
+        <v>The fun-loving Gumbles bounce and play while staying away from the foul-smelling Bottersnikes who live in a nearby junkyard.</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>80156047</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B115" t="str">
+        <f>INDEX(details!B:B,MATCH($A115,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C115" t="str">
+        <f>INDEX(details!C:C,MATCH($A115,details!$A:$A,0))</f>
+        <v>Outback Truckers</v>
+      </c>
+      <c r="D115" t="str">
+        <f>INDEX(details!G:G,MATCH($A115,details!$A:$A,0))</f>
+        <v>TV-14</v>
+      </c>
+      <c r="E115" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A115,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F115" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A115,country!$A:$A,0))</f>
+        <v xml:space="preserve"> March 17, 2017</v>
+      </c>
+      <c r="G115" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A115,description!A:A,0))</f>
+        <v>Australia's toughest big-rig drivers brave wildfires, scorching deserts, treacherous downpours and chassis-deep mud to deliver their cargo on time.</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>80027772</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B116" t="str">
+        <f>INDEX(details!B:B,MATCH($A116,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C116" t="str">
+        <f>INDEX(details!C:C,MATCH($A116,details!$A:$A,0))</f>
+        <v>The Day My Butt Went Psycho!</v>
+      </c>
+      <c r="D116" t="str">
+        <f>INDEX(details!G:G,MATCH($A116,details!$A:$A,0))</f>
+        <v>TV-Y7</v>
+      </c>
+      <c r="E116" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A116,country!$A:$A,0))</f>
+        <v>Canada, Australia</v>
+      </c>
+      <c r="F116" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A116,country!$A:$A,0))</f>
+        <v xml:space="preserve"> June 30, 2015</v>
+      </c>
+      <c r="G116" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A116,description!A:A,0))</f>
+        <v>A boy and his best friend â€“ his newly detached butt â€“ embark on wacky adventures in a world where humans and their butts live side by side.</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>81023011</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B117" t="str">
+        <f>INDEX(details!B:B,MATCH($A117,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C117" t="str">
+        <f>INDEX(details!C:C,MATCH($A117,details!$A:$A,0))</f>
+        <v>Instant Hotel</v>
+      </c>
+      <c r="D117" t="str">
+        <f>INDEX(details!G:G,MATCH($A117,details!$A:$A,0))</f>
+        <v>TV-MA</v>
+      </c>
+      <c r="E117" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A117,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F117" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A117,country!$A:$A,0))</f>
+        <v xml:space="preserve"> June 28, 2019</v>
+      </c>
+      <c r="G117" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A117,description!A:A,0))</f>
+        <v>Teams of Australian homeowners compete for the title of best Instant Hotel by staying overnight in each other's rentals and rating their experience.</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>80134440</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B118" t="str">
+        <f>INDEX(details!B:B,MATCH($A118,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C118" t="str">
+        <f>INDEX(details!C:C,MATCH($A118,details!$A:$A,0))</f>
+        <v>Motown Magic</v>
+      </c>
+      <c r="D118" t="str">
+        <f>INDEX(details!G:G,MATCH($A118,details!$A:$A,0))</f>
+        <v>TV-Y</v>
+      </c>
+      <c r="E118" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A118,country!$A:$A,0))</f>
+        <v>Australia, United States</v>
+      </c>
+      <c r="F118" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A118,country!$A:$A,0))</f>
+        <v xml:space="preserve"> June 28, 2019</v>
+      </c>
+      <c r="G118" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A118,description!A:A,0))</f>
+        <v>Imaginative boy Ben transforms his city by bringing colorful street art to life, armed with a magic paintbrush â€“ and the classic sounds of Motown.</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>80198635</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B119" t="str">
+        <f>INDEX(details!B:B,MATCH($A119,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C119" t="str">
+        <f>INDEX(details!C:C,MATCH($A119,details!$A:$A,0))</f>
+        <v>The Letdown</v>
+      </c>
+      <c r="D119" t="str">
+        <f>INDEX(details!G:G,MATCH($A119,details!$A:$A,0))</f>
+        <v>TV-MA</v>
+      </c>
+      <c r="E119" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A119,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F119" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A119,country!$A:$A,0))</f>
+        <v xml:space="preserve"> July 31, 2019</v>
+      </c>
+      <c r="G119" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A119,description!A:A,0))</f>
+        <v>Audrey, mother of a 2-month-old, joins a new-parents support group, where she makes some quirky friends facing various challenges and life changes.</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>80217769</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B120" t="str">
+        <f>INDEX(details!B:B,MATCH($A120,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C120" t="str">
+        <f>INDEX(details!C:C,MATCH($A120,details!$A:$A,0))</f>
+        <v>Yummy Mummies</v>
+      </c>
+      <c r="D120" t="str">
+        <f>INDEX(details!G:G,MATCH($A120,details!$A:$A,0))</f>
+        <v>TV-14</v>
+      </c>
+      <c r="E120" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A120,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F120" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A120,country!$A:$A,0))</f>
+        <v xml:space="preserve"> July 3, 2019</v>
+      </c>
+      <c r="G120" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A120,description!A:A,0))</f>
+        <v>It's drama Down Under when expectant mothers with model good looks and lavish lifestyles pull out all the stops to prepare for their new arrivals.</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>81014647</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B121" t="str">
+        <f>INDEX(details!B:B,MATCH($A121,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C121" t="str">
+        <f>INDEX(details!C:C,MATCH($A121,details!$A:$A,0))</f>
+        <v>Kath and Kim</v>
+      </c>
+      <c r="D121" t="str">
+        <f>INDEX(details!G:G,MATCH($A121,details!$A:$A,0))</f>
+        <v>TV-14</v>
+      </c>
+      <c r="E121" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A121,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F121" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A121,country!$A:$A,0))</f>
+        <v xml:space="preserve"> July 28, 2018</v>
+      </c>
+      <c r="G121" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A121,description!A:A,0))</f>
+        <v>As Kath prepares to wed fine-meats purveyor Kel, her daughter Kim moves back home after becoming disillusioned with her two-month marriage to Brett.</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>80057611</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B122" t="str">
+        <f>INDEX(details!B:B,MATCH($A122,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C122" t="str">
+        <f>INDEX(details!C:C,MATCH($A122,details!$A:$A,0))</f>
+        <v>Beat Bugs</v>
+      </c>
+      <c r="D122" t="str">
+        <f>INDEX(details!G:G,MATCH($A122,details!$A:$A,0))</f>
+        <v>TV-Y</v>
+      </c>
+      <c r="E122" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A122,country!$A:$A,0))</f>
+        <v>Australia, Canada</v>
+      </c>
+      <c r="F122" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A122,country!$A:$A,0))</f>
+        <v xml:space="preserve"> July 21, 2019</v>
+      </c>
+      <c r="G122" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A122,description!A:A,0))</f>
+        <v>With songs made famous by the Beatles, five friendly bugs learn big lessons about the world around them â€“ all from the safety of their own backyard.</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>80025553</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B123" t="str">
+        <f>INDEX(details!B:B,MATCH($A123,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C123" t="str">
+        <f>INDEX(details!C:C,MATCH($A123,details!$A:$A,0))</f>
+        <v>H2O: Mermaid Adventures</v>
+      </c>
+      <c r="D123" t="str">
+        <f>INDEX(details!G:G,MATCH($A123,details!$A:$A,0))</f>
+        <v>TV-Y7</v>
+      </c>
+      <c r="E123" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A123,country!$A:$A,0))</f>
+        <v>Germany, Australia</v>
+      </c>
+      <c r="F123" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A123,country!$A:$A,0))</f>
+        <v xml:space="preserve"> July 15, 2015</v>
+      </c>
+      <c r="G123" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A123,description!A:A,0))</f>
+        <v>Three high school friends who turn into mermaids whenever they touch water have undersea adventures while keeping their new life a secret.</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>80133187</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B124" t="str">
+        <f>INDEX(details!B:B,MATCH($A124,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C124" t="str">
+        <f>INDEX(details!C:C,MATCH($A124,details!$A:$A,0))</f>
+        <v>Tales by Light</v>
+      </c>
+      <c r="D124" t="str">
+        <f>INDEX(details!G:G,MATCH($A124,details!$A:$A,0))</f>
+        <v>TV-PG</v>
+      </c>
+      <c r="E124" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A124,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F124" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A124,country!$A:$A,0))</f>
+        <v xml:space="preserve"> January 5, 2019</v>
+      </c>
+      <c r="G124" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A124,description!A:A,0))</f>
+        <v>Follow renowned photographers as they explore far-flung locales, capturing extraordinary images that present nature and culture in a new light.</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>70180051</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B125" t="str">
+        <f>INDEX(details!B:B,MATCH($A125,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C125" t="str">
+        <f>INDEX(details!C:C,MATCH($A125,details!$A:$A,0))</f>
+        <v>H2O: Just Add Water</v>
+      </c>
+      <c r="D125" t="str">
+        <f>INDEX(details!G:G,MATCH($A125,details!$A:$A,0))</f>
+        <v>TV-PG</v>
+      </c>
+      <c r="E125" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A125,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F125" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A125,country!$A:$A,0))</f>
+        <v xml:space="preserve"> February 8, 2017</v>
+      </c>
+      <c r="G125" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A125,description!A:A,0))</f>
+        <v>The gals in this fantasy series cope with the burden of growing a giant fin and transforming into mermaids whenever they come in contact with water.</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>80195522</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B126" t="str">
+        <f>INDEX(details!B:B,MATCH($A126,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C126" t="str">
+        <f>INDEX(details!C:C,MATCH($A126,details!$A:$A,0))</f>
+        <v>Wanted</v>
+      </c>
+      <c r="D126" t="str">
+        <f>INDEX(details!G:G,MATCH($A126,details!$A:$A,0))</f>
+        <v>TV-14</v>
+      </c>
+      <c r="E126" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A126,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F126" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A126,country!$A:$A,0))</f>
+        <v xml:space="preserve"> December 13, 2018</v>
+      </c>
+      <c r="G126" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A126,description!A:A,0))</f>
+        <v>Polar-opposite strangers Lola and Chelsea become partners on the run when they witness a murder involving dirty cops and are framed for the crime.</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
         <v>80013249</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B127" t="str">
+        <f>INDEX(details!B:B,MATCH($A127,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C127" t="str">
+        <f>INDEX(details!C:C,MATCH($A127,details!$A:$A,0))</f>
+        <v>Wentworth</v>
+      </c>
+      <c r="D127" t="str">
+        <f>INDEX(details!G:G,MATCH($A127,details!$A:$A,0))</f>
+        <v>NR</v>
+      </c>
+      <c r="E127" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A127,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F127" t="str">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A127,country!$A:$A,0))</f>
+        <v xml:space="preserve"> August 1, 2019</v>
+      </c>
+      <c r="G127" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A127,description!A:A,0))</f>
+        <v>Bea Smith is locked up while awaiting trial for the alleged attempted murder of her husband and must learn how life works in prison.</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>80005756</v>
+      </c>
+      <c r="B128" t="str">
+        <f>INDEX(details!B:B,MATCH($A128,details!A:A,0))</f>
+        <v>TV Show</v>
+      </c>
+      <c r="C128" t="str">
+        <f>INDEX(details!C:C,MATCH($A128,details!$A:$A,0))</f>
+        <v>The Adventures of Figaro Pho</v>
+      </c>
+      <c r="D128" t="str">
+        <f>INDEX(details!G:G,MATCH($A128,details!$A:$A,0))</f>
+        <v>TV-Y7</v>
+      </c>
+      <c r="E128" t="str">
+        <f>INDEX(country!B:B,MATCH(Exercise!$A128,country!$A:$A,0))</f>
+        <v>Australia</v>
+      </c>
+      <c r="F128">
+        <f>INDEX(country!C:C,MATCH(Exercise!$A128,country!$A:$A,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G128" t="str">
+        <f>INDEX(description!B:B,MATCH(Exercise!A128,description!A:A,0))</f>
+        <v>Imagine your worst fears, then multiply them: Figaro is a boy with any number of phobias and a highly quirky and imaginative way of dealing with them.</v>
       </c>
     </row>
   </sheetData>
@@ -3870,19 +6899,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3911,7 +6948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>60031232</v>
       </c>
@@ -3940,7 +6977,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>80994108</v>
       </c>
@@ -3967,7 +7004,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>80025390</v>
       </c>
@@ -3996,7 +7033,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>80204927</v>
       </c>
@@ -4023,7 +7060,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>81025251</v>
       </c>
@@ -4050,7 +7087,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>81003997</v>
       </c>
@@ -4077,7 +7114,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>80222326</v>
       </c>
@@ -4104,7 +7141,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>80190841</v>
       </c>
@@ -4133,7 +7170,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>80115858</v>
       </c>
@@ -4162,7 +7199,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>70095135</v>
       </c>
@@ -4191,7 +7228,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>80221498</v>
       </c>
@@ -4218,7 +7255,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>70150437</v>
       </c>
@@ -4247,7 +7284,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>80002999</v>
       </c>
@@ -4274,7 +7311,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>80208104</v>
       </c>
@@ -4303,7 +7340,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>70267398</v>
       </c>
@@ -4332,7 +7369,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>70135899</v>
       </c>
@@ -4361,7 +7398,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>70243692</v>
       </c>
@@ -4390,7 +7427,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>80075824</v>
       </c>
@@ -4419,7 +7456,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>81028574</v>
       </c>
@@ -4448,7 +7485,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>81028560</v>
       </c>
@@ -4477,7 +7514,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>60033312</v>
       </c>
@@ -4506,7 +7543,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>70060017</v>
       </c>
@@ -4535,7 +7572,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>60000545</v>
       </c>
@@ -4564,7 +7601,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>80025702</v>
       </c>
@@ -4593,7 +7630,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>80156369</v>
       </c>
@@ -4622,7 +7659,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>80161216</v>
       </c>
@@ -4651,7 +7688,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>80169548</v>
       </c>
@@ -4678,7 +7715,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>70283202</v>
       </c>
@@ -4707,7 +7744,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>80241537</v>
       </c>
@@ -4736,7 +7773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>80241616</v>
       </c>
@@ -4765,7 +7802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>80244709</v>
       </c>
@@ -4794,7 +7831,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>80227090</v>
       </c>
@@ -4823,7 +7860,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>70135893</v>
       </c>
@@ -4852,7 +7889,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>80233611</v>
       </c>
@@ -4881,7 +7918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>80104022</v>
       </c>
@@ -4906,7 +7943,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>80103006</v>
       </c>
@@ -4933,7 +7970,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>81018141</v>
       </c>
@@ -4962,7 +7999,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>81015524</v>
       </c>
@@ -4991,7 +8028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>80170862</v>
       </c>
@@ -5018,7 +8055,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>80244472</v>
       </c>
@@ -5047,7 +8084,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>80190463</v>
       </c>
@@ -5076,7 +8113,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>80027378</v>
       </c>
@@ -5105,7 +8142,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>70266679</v>
       </c>
@@ -5134,7 +8171,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>80988262</v>
       </c>
@@ -5163,7 +8200,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>80224312</v>
       </c>
@@ -5188,7 +8225,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>80224184</v>
       </c>
@@ -5213,7 +8250,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>70098899</v>
       </c>
@@ -5242,7 +8279,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>70290905</v>
       </c>
@@ -5271,7 +8308,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>80118532</v>
       </c>
@@ -5298,7 +8335,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>80220085</v>
       </c>
@@ -5327,7 +8364,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>80222177</v>
       </c>
@@ -5356,7 +8393,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>70202600</v>
       </c>
@@ -5383,7 +8420,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>70044594</v>
       </c>
@@ -5412,7 +8449,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>70125232</v>
       </c>
@@ -5441,7 +8478,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>60022396</v>
       </c>
@@ -5470,7 +8507,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>70060010</v>
       </c>
@@ -5499,7 +8536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>80119555</v>
       </c>
@@ -5528,7 +8565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>80038446</v>
       </c>
@@ -5557,7 +8594,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>80061160</v>
       </c>
@@ -5586,7 +8623,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>80007215</v>
       </c>
@@ -5613,7 +8650,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>70132722</v>
       </c>
@@ -5642,7 +8679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>80994282</v>
       </c>
@@ -5671,7 +8708,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>80198055</v>
       </c>
@@ -5700,7 +8737,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>80078037</v>
       </c>
@@ -5725,7 +8762,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>80134682</v>
       </c>
@@ -5752,7 +8789,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>80195198</v>
       </c>
@@ -5781,7 +8818,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>70063484</v>
       </c>
@@ -5808,7 +8845,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>80244190</v>
       </c>
@@ -5837,7 +8874,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>80052828</v>
       </c>
@@ -5866,7 +8903,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>80165247</v>
       </c>
@@ -5893,7 +8930,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>81108479</v>
       </c>
@@ -5922,7 +8959,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>70221084</v>
       </c>
@@ -5949,7 +8986,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>60030245</v>
       </c>
@@ -5978,7 +9015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>80046145</v>
       </c>
@@ -6007,7 +9044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>80106265</v>
       </c>
@@ -6034,7 +9071,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>80191239</v>
       </c>
@@ -6061,7 +9098,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>80205065</v>
       </c>
@@ -6090,7 +9127,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>80144453</v>
       </c>
@@ -6119,7 +9156,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>80188823</v>
       </c>
@@ -6146,7 +9183,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>81024716</v>
       </c>
@@ -6175,7 +9212,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>80204929</v>
       </c>
@@ -6202,7 +9239,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>80066806</v>
       </c>
@@ -6229,7 +9266,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>80243216</v>
       </c>
@@ -6256,7 +9293,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>60000677</v>
       </c>
@@ -6285,7 +9322,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>80164392</v>
       </c>
@@ -6314,7 +9351,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>80201039</v>
       </c>
@@ -6343,7 +9380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>80182274</v>
       </c>
@@ -6370,7 +9407,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>80165437</v>
       </c>
@@ -6397,7 +9434,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>70119812</v>
       </c>
@@ -6426,7 +9463,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>70301367</v>
       </c>
@@ -6455,7 +9492,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>70039168</v>
       </c>
@@ -6484,7 +9521,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>81103517</v>
       </c>
@@ -6511,7 +9548,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>80185803</v>
       </c>
@@ -6536,7 +9573,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>80187107</v>
       </c>
@@ -6565,7 +9602,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>80104552</v>
       </c>
@@ -6594,7 +9631,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>80175352</v>
       </c>
@@ -6621,7 +9658,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>80142316</v>
       </c>
@@ -6648,7 +9685,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>80184682</v>
       </c>
@@ -6675,7 +9712,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>70242568</v>
       </c>
@@ -6704,7 +9741,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>80081278</v>
       </c>
@@ -6733,7 +9770,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>80238655</v>
       </c>
@@ -6762,7 +9799,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>80198950</v>
       </c>
@@ -6789,7 +9826,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>80108495</v>
       </c>
@@ -6816,7 +9853,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>80118289</v>
       </c>
@@ -6843,7 +9880,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>70301553</v>
       </c>
@@ -6870,7 +9907,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>80107077</v>
       </c>
@@ -6897,7 +9934,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>80221999</v>
       </c>
@@ -6924,7 +9961,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>80101401</v>
       </c>
@@ -6951,7 +9988,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>80057609</v>
       </c>
@@ -6978,7 +10015,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>70281343</v>
       </c>
@@ -7005,7 +10042,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>80211136</v>
       </c>
@@ -7032,7 +10069,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>80022276</v>
       </c>
@@ -7059,7 +10096,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>80156047</v>
       </c>
@@ -7084,7 +10121,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>80027772</v>
       </c>
@@ -7111,7 +10148,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>81023011</v>
       </c>
@@ -7138,7 +10175,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>80134440</v>
       </c>
@@ -7163,7 +10200,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>80198635</v>
       </c>
@@ -7190,7 +10227,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>80217769</v>
       </c>
@@ -7217,7 +10254,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>81014647</v>
       </c>
@@ -7244,7 +10281,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>80057611</v>
       </c>
@@ -7271,7 +10308,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>80025553</v>
       </c>
@@ -7298,7 +10335,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>80133187</v>
       </c>
@@ -7325,7 +10362,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>70180051</v>
       </c>
@@ -7352,7 +10389,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>80195522</v>
       </c>
@@ -7379,7 +10416,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>80013249</v>
       </c>
@@ -7406,7 +10443,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>80005756</v>
       </c>
@@ -7439,20 +10476,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="7"/>
-    <col min="2" max="2" width="13.6640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="143.5703125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -7460,7 +10497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>70135899</v>
       </c>
@@ -7468,7 +10505,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>80046145</v>
       </c>
@@ -7476,7 +10513,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>80025390</v>
       </c>
@@ -7484,7 +10521,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>80057611</v>
       </c>
@@ -7492,7 +10529,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>70301553</v>
       </c>
@@ -7500,7 +10537,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>70283202</v>
       </c>
@@ -7508,7 +10545,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>80222326</v>
       </c>
@@ -7516,7 +10553,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>80241537</v>
       </c>
@@ -7524,7 +10561,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>70039168</v>
       </c>
@@ -7532,7 +10569,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>70267398</v>
       </c>
@@ -7540,7 +10577,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>80220085</v>
       </c>
@@ -7548,7 +10585,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>60000545</v>
       </c>
@@ -7556,7 +10593,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>81024716</v>
       </c>
@@ -7564,7 +10601,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>70098899</v>
       </c>
@@ -7572,7 +10609,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>80164392</v>
       </c>
@@ -7580,7 +10617,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>80224312</v>
       </c>
@@ -7588,7 +10625,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>60031232</v>
       </c>
@@ -7596,7 +10633,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>80061160</v>
       </c>
@@ -7604,7 +10641,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>80185803</v>
       </c>
@@ -7612,7 +10649,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>80025553</v>
       </c>
@@ -7620,7 +10657,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>80104022</v>
       </c>
@@ -7628,7 +10665,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>80221999</v>
       </c>
@@ -7636,7 +10673,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>80224184</v>
       </c>
@@ -7644,7 +10681,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>80198950</v>
       </c>
@@ -7652,7 +10689,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>70202600</v>
       </c>
@@ -7660,7 +10697,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>80170862</v>
       </c>
@@ -7668,7 +10705,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>60000677</v>
       </c>
@@ -7676,7 +10713,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>80169548</v>
       </c>
@@ -7684,7 +10721,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>80066806</v>
       </c>
@@ -7692,7 +10729,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>80994282</v>
       </c>
@@ -7700,7 +10737,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>80188823</v>
       </c>
@@ -7708,7 +10745,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>70281343</v>
       </c>
@@ -7716,7 +10753,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>81028560</v>
       </c>
@@ -7724,7 +10761,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>80101401</v>
       </c>
@@ -7732,7 +10769,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>70180051</v>
       </c>
@@ -7740,7 +10777,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>80022276</v>
       </c>
@@ -7748,7 +10785,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>81023011</v>
       </c>
@@ -7756,7 +10793,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>80025702</v>
       </c>
@@ -7764,7 +10801,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>70044594</v>
       </c>
@@ -7772,7 +10809,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>80190463</v>
       </c>
@@ -7780,7 +10817,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>70125232</v>
       </c>
@@ -7788,7 +10825,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>70242568</v>
       </c>
@@ -7796,7 +10833,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>70266679</v>
       </c>
@@ -7804,7 +10841,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>80175352</v>
       </c>
@@ -7812,7 +10849,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>80165247</v>
       </c>
@@ -7820,7 +10857,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>80195522</v>
       </c>
@@ -7828,7 +10865,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>60030245</v>
       </c>
@@ -7836,7 +10873,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>80057609</v>
       </c>
@@ -7844,7 +10881,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>80241616</v>
       </c>
@@ -7852,7 +10889,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>80142316</v>
       </c>
@@ -7860,7 +10897,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>81018141</v>
       </c>
@@ -7868,7 +10905,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>80217769</v>
       </c>
@@ -7876,7 +10913,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>70243692</v>
       </c>
@@ -7884,7 +10921,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>80002999</v>
       </c>
@@ -7892,7 +10929,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>60033312</v>
       </c>
@@ -7900,7 +10937,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>80201039</v>
       </c>
@@ -7908,7 +10945,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>70135893</v>
       </c>
@@ -7916,7 +10953,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>80106265</v>
       </c>
@@ -7924,7 +10961,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>80244472</v>
       </c>
@@ -7932,7 +10969,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>80107077</v>
       </c>
@@ -7940,7 +10977,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>80144453</v>
       </c>
@@ -7948,7 +10985,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>80244190</v>
       </c>
@@ -7956,7 +10993,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>81025251</v>
       </c>
@@ -7964,7 +11001,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>80104552</v>
       </c>
@@ -7972,7 +11009,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>80005756</v>
       </c>
@@ -7980,7 +11017,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>80134440</v>
       </c>
@@ -7988,7 +11025,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>70119812</v>
       </c>
@@ -7996,7 +11033,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>81103517</v>
       </c>
@@ -8004,7 +11041,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>80994108</v>
       </c>
@@ -8012,7 +11049,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>80081278</v>
       </c>
@@ -8020,7 +11057,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>80052828</v>
       </c>
@@ -8028,7 +11065,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>80119555</v>
       </c>
@@ -8036,7 +11073,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>80075824</v>
       </c>
@@ -8044,7 +11081,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>80103006</v>
       </c>
@@ -8052,7 +11089,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>80165437</v>
       </c>
@@ -8060,7 +11097,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>81003997</v>
       </c>
@@ -8068,7 +11105,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>80243216</v>
       </c>
@@ -8076,7 +11113,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>80227090</v>
       </c>
@@ -8084,7 +11121,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>80222177</v>
       </c>
@@ -8092,7 +11129,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>80133187</v>
       </c>
@@ -8100,7 +11137,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>70221084</v>
       </c>
@@ -8108,7 +11145,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>80134682</v>
       </c>
@@ -8116,7 +11153,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>80221498</v>
       </c>
@@ -8124,7 +11161,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>80198055</v>
       </c>
@@ -8132,7 +11169,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>80191239</v>
       </c>
@@ -8140,7 +11177,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>60022396</v>
       </c>
@@ -8148,7 +11185,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>80238655</v>
       </c>
@@ -8156,7 +11193,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>80204927</v>
       </c>
@@ -8164,7 +11201,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>80204929</v>
       </c>
@@ -8172,7 +11209,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>81015524</v>
       </c>
@@ -8180,7 +11217,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>70132722</v>
       </c>
@@ -8188,7 +11225,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>81028574</v>
       </c>
@@ -8196,7 +11233,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>80013249</v>
       </c>
@@ -8204,7 +11241,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>70060010</v>
       </c>
@@ -8212,7 +11249,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>80118532</v>
       </c>
@@ -8220,7 +11257,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>80156047</v>
       </c>
@@ -8228,7 +11265,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>80233611</v>
       </c>
@@ -8236,7 +11273,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>80198635</v>
       </c>
@@ -8244,7 +11281,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>80195198</v>
       </c>
@@ -8252,7 +11289,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>81014647</v>
       </c>
@@ -8260,7 +11297,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>70095135</v>
       </c>
@@ -8268,7 +11305,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>80007215</v>
       </c>
@@ -8276,7 +11313,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>70063484</v>
       </c>
@@ -8284,7 +11321,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>81108479</v>
       </c>
@@ -8292,7 +11329,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>80161216</v>
       </c>
@@ -8300,7 +11337,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>80208104</v>
       </c>
@@ -8308,7 +11345,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>80156369</v>
       </c>
@@ -8316,7 +11353,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>80244709</v>
       </c>
@@ -8324,7 +11361,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>80988262</v>
       </c>
@@ -8332,7 +11369,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>80190841</v>
       </c>
@@ -8340,7 +11377,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>80078037</v>
       </c>
@@ -8348,7 +11385,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>80027378</v>
       </c>
@@ -8356,7 +11393,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>70301367</v>
       </c>
@@ -8364,7 +11401,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>80184682</v>
       </c>
@@ -8372,7 +11409,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>80187107</v>
       </c>
@@ -8380,7 +11417,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>80211136</v>
       </c>
@@ -8388,7 +11425,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>80115858</v>
       </c>
@@ -8396,7 +11433,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>80108495</v>
       </c>
@@ -8404,7 +11441,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>80118289</v>
       </c>
@@ -8412,7 +11449,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>80038446</v>
       </c>
@@ -8420,7 +11457,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>70290905</v>
       </c>
@@ -8428,7 +11465,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>80205065</v>
       </c>
@@ -8436,7 +11473,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>70150437</v>
       </c>
@@ -8444,7 +11481,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>70060017</v>
       </c>
@@ -8452,7 +11489,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>80027772</v>
       </c>
@@ -8460,7 +11497,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
         <v>80182274</v>
       </c>
@@ -8475,19 +11512,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="17"/>
+    <col min="1" max="1" width="9" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="115.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -8498,7 +11537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>80013249</v>
       </c>
@@ -8509,7 +11548,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>80195522</v>
       </c>
@@ -8520,7 +11559,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>70180051</v>
       </c>
@@ -8531,7 +11570,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>80133187</v>
       </c>
@@ -8542,7 +11581,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>80025553</v>
       </c>
@@ -8553,7 +11592,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>80057611</v>
       </c>
@@ -8564,7 +11603,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>81014647</v>
       </c>
@@ -8575,7 +11614,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>80217769</v>
       </c>
@@ -8586,7 +11625,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>80198635</v>
       </c>
@@ -8597,7 +11636,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>81023011</v>
       </c>
@@ -8608,7 +11647,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>80134440</v>
       </c>
@@ -8619,7 +11658,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>80027772</v>
       </c>
@@ -8630,7 +11669,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>80156047</v>
       </c>
@@ -8641,7 +11680,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>80022276</v>
       </c>
@@ -8652,7 +11691,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>80211136</v>
       </c>
@@ -8663,7 +11702,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>70281343</v>
       </c>
@@ -8674,7 +11713,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>80057609</v>
       </c>
@@ -8685,7 +11724,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>80221999</v>
       </c>
@@ -8696,7 +11735,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>80101401</v>
       </c>
@@ -8707,7 +11746,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>80107077</v>
       </c>
@@ -8718,7 +11757,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>70301553</v>
       </c>
@@ -8729,7 +11768,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>80118289</v>
       </c>
@@ -8740,7 +11779,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>80108495</v>
       </c>
@@ -8751,7 +11790,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>80198950</v>
       </c>
@@ -8762,7 +11801,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>80238655</v>
       </c>
@@ -8773,7 +11812,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>80081278</v>
       </c>
@@ -8784,7 +11823,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>70242568</v>
       </c>
@@ -8795,7 +11834,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>80184682</v>
       </c>
@@ -8806,7 +11845,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>80142316</v>
       </c>
@@ -8817,7 +11856,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>80175352</v>
       </c>
@@ -8828,7 +11867,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>80104552</v>
       </c>
@@ -8839,7 +11878,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>80185803</v>
       </c>
@@ -8850,7 +11889,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>80187107</v>
       </c>
@@ -8861,7 +11900,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>70119812</v>
       </c>
@@ -8872,7 +11911,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>70301367</v>
       </c>
@@ -8883,7 +11922,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>70039168</v>
       </c>
@@ -8894,7 +11933,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>81103517</v>
       </c>
@@ -8905,7 +11944,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>80165437</v>
       </c>
@@ -8916,7 +11955,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>80182274</v>
       </c>
@@ -8927,7 +11966,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>80201039</v>
       </c>
@@ -8938,7 +11977,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>80164392</v>
       </c>
@@ -8949,7 +11988,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>60000677</v>
       </c>
@@ -8960,7 +11999,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>80243216</v>
       </c>
@@ -8971,7 +12010,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>80066806</v>
       </c>
@@ -8982,7 +12021,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>80204929</v>
       </c>
@@ -8993,7 +12032,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>81024716</v>
       </c>
@@ -9004,7 +12043,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>80188823</v>
       </c>
@@ -9015,7 +12054,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
         <v>80144453</v>
       </c>
@@ -9026,7 +12065,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>80205065</v>
       </c>
@@ -9037,7 +12076,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <v>80191239</v>
       </c>
@@ -9048,7 +12087,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>80106265</v>
       </c>
@@ -9059,7 +12098,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>80046145</v>
       </c>
@@ -9070,7 +12109,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>60030245</v>
       </c>
@@ -9081,7 +12120,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <v>70221084</v>
       </c>
@@ -9092,7 +12131,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>81108479</v>
       </c>
@@ -9103,7 +12142,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <v>80165247</v>
       </c>
@@ -9114,7 +12153,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>80052828</v>
       </c>
@@ -9125,7 +12164,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <v>80244190</v>
       </c>
@@ -9136,7 +12175,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>70063484</v>
       </c>
@@ -9147,7 +12186,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <v>80195198</v>
       </c>
@@ -9158,7 +12197,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
         <v>80134682</v>
       </c>
@@ -9169,7 +12208,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
         <v>80198055</v>
       </c>
@@ -9180,7 +12219,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="15">
         <v>80078037</v>
       </c>
@@ -9191,7 +12230,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>70132722</v>
       </c>
@@ -9202,7 +12241,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="15">
         <v>80994282</v>
       </c>
@@ -9213,7 +12252,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="15">
         <v>80007215</v>
       </c>
@@ -9224,7 +12263,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>80061160</v>
       </c>
@@ -9235,7 +12274,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
         <v>80038446</v>
       </c>
@@ -9246,7 +12285,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <v>80119555</v>
       </c>
@@ -9257,7 +12296,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="15">
         <v>70060010</v>
       </c>
@@ -9268,7 +12307,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
         <v>70044594</v>
       </c>
@@ -9279,7 +12318,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="15">
         <v>70125232</v>
       </c>
@@ -9290,7 +12329,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
         <v>60022396</v>
       </c>
@@ -9301,7 +12340,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="15">
         <v>70202600</v>
       </c>
@@ -9312,7 +12351,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="13">
         <v>80222177</v>
       </c>
@@ -9323,7 +12362,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="15">
         <v>80220085</v>
       </c>
@@ -9334,7 +12373,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="15">
         <v>70290905</v>
       </c>
@@ -9345,7 +12384,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
         <v>80118532</v>
       </c>
@@ -9356,7 +12395,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="13">
         <v>70098899</v>
       </c>
@@ -9367,7 +12406,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="13">
         <v>80224312</v>
       </c>
@@ -9378,7 +12417,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="15">
         <v>80224184</v>
       </c>
@@ -9389,7 +12428,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="15">
         <v>80988262</v>
       </c>
@@ -9400,7 +12439,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="15">
         <v>80027378</v>
       </c>
@@ -9411,7 +12450,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="13">
         <v>70266679</v>
       </c>
@@ -9422,7 +12461,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="15">
         <v>80244472</v>
       </c>
@@ -9433,7 +12472,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="13">
         <v>80190463</v>
       </c>
@@ -9444,7 +12483,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="13">
         <v>80170862</v>
       </c>
@@ -9455,7 +12494,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="13">
         <v>81018141</v>
       </c>
@@ -9466,7 +12505,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="15">
         <v>81015524</v>
       </c>
@@ -9477,7 +12516,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="13">
         <v>80104022</v>
       </c>
@@ -9488,7 +12527,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="15">
         <v>80103006</v>
       </c>
@@ -9499,7 +12538,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="15">
         <v>80233611</v>
       </c>
@@ -9510,7 +12549,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="13">
         <v>70135893</v>
       </c>
@@ -9521,7 +12560,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="15">
         <v>80227090</v>
       </c>
@@ -9532,7 +12571,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="13">
         <v>80244709</v>
       </c>
@@ -9543,7 +12582,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="13">
         <v>80241537</v>
       </c>
@@ -9554,7 +12593,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="15">
         <v>80241616</v>
       </c>
@@ -9565,7 +12604,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="15">
         <v>70283202</v>
       </c>
@@ -9576,7 +12615,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="13">
         <v>80169548</v>
       </c>
@@ -9587,7 +12626,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="15">
         <v>80161216</v>
       </c>
@@ -9598,7 +12637,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="13">
         <v>60000545</v>
       </c>
@@ -9609,7 +12648,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="15">
         <v>80025702</v>
       </c>
@@ -9620,7 +12659,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="13">
         <v>80156369</v>
       </c>
@@ -9631,7 +12670,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="15">
         <v>70060017</v>
       </c>
@@ -9642,7 +12681,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="13">
         <v>60033312</v>
       </c>
@@ -9653,7 +12692,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="15">
         <v>80075824</v>
       </c>
@@ -9664,7 +12703,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="13">
         <v>81028574</v>
       </c>
@@ -9675,7 +12714,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="15">
         <v>81028560</v>
       </c>
@@ -9686,7 +12725,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="13">
         <v>70243692</v>
       </c>
@@ -9697,7 +12736,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="15">
         <v>70135899</v>
       </c>
@@ -9708,7 +12747,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="13">
         <v>70267398</v>
       </c>
@@ -9719,7 +12758,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="15">
         <v>80208104</v>
       </c>
@@ -9730,7 +12769,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="13">
         <v>80002999</v>
       </c>
@@ -9741,7 +12780,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="13">
         <v>80221498</v>
       </c>
@@ -9752,7 +12791,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="15">
         <v>70150437</v>
       </c>
@@ -9763,7 +12802,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="15">
         <v>70095135</v>
       </c>
@@ -9774,7 +12813,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="15">
         <v>80190841</v>
       </c>
@@ -9785,7 +12824,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="13">
         <v>80115858</v>
       </c>
@@ -9796,7 +12835,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="13">
         <v>80222326</v>
       </c>
@@ -9807,7 +12846,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="15">
         <v>81003997</v>
       </c>
@@ -9818,7 +12857,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="13">
         <v>81025251</v>
       </c>
@@ -9829,7 +12868,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="15">
         <v>80204927</v>
       </c>
@@ -9840,7 +12879,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="13">
         <v>80025390</v>
       </c>
@@ -9851,7 +12890,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="15">
         <v>80994108</v>
       </c>
@@ -9862,7 +12901,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="13">
         <v>60031232</v>
       </c>
@@ -9873,7 +12912,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="15">
         <v>80005756</v>
       </c>
